--- a/BFD_report.xlsx
+++ b/BFD_report.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BFD solution" r:id="rId3" sheetId="1"/>
+    <sheet name="BFD_report" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>

--- a/BFD_report.xlsx
+++ b/BFD_report.xlsx
@@ -6,13 +6,13 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="BFD_report" r:id="rId3" sheetId="1"/>
+    <sheet name="Test Case A BC10" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="763" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="368">
   <si>
     <t>Airplane ID</t>
   </si>
@@ -143,7 +143,10 @@
     <t>Plane #33</t>
   </si>
   <si>
-    <t>Test</t>
+    <t>Diplomatic Cargo</t>
+  </si>
+  <si>
+    <t>Food Rations</t>
   </si>
   <si>
     <t>Plane #34</t>
@@ -152,13 +155,13 @@
     <t>Plane #35</t>
   </si>
   <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
     <t>Plane #36</t>
   </si>
   <si>
-    <t>Diplomatic Cargo</t>
-  </si>
-  <si>
-    <t>Food Rations</t>
+    <t>Emergency Relief Supplies</t>
   </si>
   <si>
     <t>Plane #37</t>
@@ -167,18 +170,15 @@
     <t>Plane #38</t>
   </si>
   <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
     <t>Plane #39</t>
   </si>
   <si>
-    <t>Emergency Relief Supplies</t>
-  </si>
-  <si>
     <t>Plane #40</t>
   </si>
   <si>
+    <t>Construction Materials</t>
+  </si>
+  <si>
     <t>Plane #41</t>
   </si>
   <si>
@@ -188,54 +188,57 @@
     <t>Plane #43</t>
   </si>
   <si>
-    <t>Construction Materials</t>
-  </si>
-  <si>
     <t>Plane #44</t>
   </si>
   <si>
+    <t>Fragile Goods</t>
+  </si>
+  <si>
     <t>Plane #45</t>
   </si>
   <si>
     <t>Plane #46</t>
   </si>
   <si>
+    <t>Heavy Tools</t>
+  </si>
+  <si>
     <t>Plane #47</t>
   </si>
   <si>
-    <t>Fragile Goods</t>
-  </si>
-  <si>
     <t>Plane #48</t>
   </si>
   <si>
+    <t>Historical Artifacts</t>
+  </si>
+  <si>
     <t>Plane #49</t>
   </si>
   <si>
-    <t>Heavy Tools</t>
-  </si>
-  <si>
     <t>Plane #50</t>
   </si>
   <si>
+    <t>Laboratory Samples</t>
+  </si>
+  <si>
     <t>Plane #51</t>
   </si>
   <si>
-    <t>Historical Artifacts</t>
-  </si>
-  <si>
     <t>Plane #52</t>
   </si>
   <si>
     <t>Plane #53</t>
   </si>
   <si>
-    <t>Laboratory Samples</t>
-  </si>
-  <si>
     <t>Plane #54</t>
   </si>
   <si>
+    <t>Oil Drilling Equipment</t>
+  </si>
+  <si>
+    <t>Robotic Components</t>
+  </si>
+  <si>
     <t>Plane #55</t>
   </si>
   <si>
@@ -245,12 +248,6 @@
     <t>Plane #57</t>
   </si>
   <si>
-    <t>Oil Drilling Equipment</t>
-  </si>
-  <si>
-    <t>Robotic Components</t>
-  </si>
-  <si>
     <t>Plane #58</t>
   </si>
   <si>
@@ -263,16 +260,22 @@
     <t>Plane #61</t>
   </si>
   <si>
+    <t>Security Equipment</t>
+  </si>
+  <si>
     <t>Plane #62</t>
   </si>
   <si>
     <t>Plane #63</t>
   </si>
   <si>
+    <t>Oversized Machinery</t>
+  </si>
+  <si>
     <t>Plane #64</t>
   </si>
   <si>
-    <t>Security Equipment</t>
+    <t>Wind Turbine Components</t>
   </si>
   <si>
     <t>Plane #65</t>
@@ -281,13 +284,10 @@
     <t>Plane #66</t>
   </si>
   <si>
-    <t>Oversized Machinery</t>
-  </si>
-  <si>
     <t>Plane #67</t>
   </si>
   <si>
-    <t>Wind Turbine Components</t>
+    <t>Theatrical Props</t>
   </si>
   <si>
     <t>Plane #68</t>
@@ -296,10 +296,13 @@
     <t>Plane #69</t>
   </si>
   <si>
+    <t>Specialized Clothing</t>
+  </si>
+  <si>
     <t>Plane #70</t>
   </si>
   <si>
-    <t>Theatrical Props</t>
+    <t>Aircraft Engines</t>
   </si>
   <si>
     <t>Plane #71</t>
@@ -308,13 +311,13 @@
     <t>Plane #72</t>
   </si>
   <si>
-    <t>Specialized Clothing</t>
+    <t>Custom Electronics</t>
   </si>
   <si>
     <t>Plane #73</t>
   </si>
   <si>
-    <t>Aircraft Engines</t>
+    <t>High-Speed Motors</t>
   </si>
   <si>
     <t>Plane #74</t>
@@ -323,18 +326,15 @@
     <t>Plane #75</t>
   </si>
   <si>
-    <t>Custom Electronics</t>
-  </si>
-  <si>
     <t>Plane #76</t>
   </si>
   <si>
-    <t>High-Speed Motors</t>
-  </si>
-  <si>
     <t>Plane #77</t>
   </si>
   <si>
+    <t>3D Printing Materials</t>
+  </si>
+  <si>
     <t>Plane #78</t>
   </si>
   <si>
@@ -344,9 +344,6 @@
     <t>Plane #80</t>
   </si>
   <si>
-    <t>3D Printing Materials</t>
-  </si>
-  <si>
     <t>Plane #81</t>
   </si>
   <si>
@@ -359,6 +356,12 @@
     <t>Plane #84</t>
   </si>
   <si>
+    <t>Automotive Parts</t>
+  </si>
+  <si>
+    <t>Passenger Luggage</t>
+  </si>
+  <si>
     <t>Plane #85</t>
   </si>
   <si>
@@ -368,7 +371,7 @@
     <t>Plane #87</t>
   </si>
   <si>
-    <t>Test2</t>
+    <t>Perishable Flowers</t>
   </si>
   <si>
     <t>Plane #88</t>
@@ -386,24 +389,18 @@
     <t>Plane #92</t>
   </si>
   <si>
-    <t>Automotive Parts</t>
-  </si>
-  <si>
-    <t>Passenger Luggage</t>
-  </si>
-  <si>
     <t>Plane #93</t>
   </si>
   <si>
+    <t>Specialty Chemicals</t>
+  </si>
+  <si>
     <t>Plane #94</t>
   </si>
   <si>
     <t>Plane #95</t>
   </si>
   <si>
-    <t>Perishable Flowers</t>
-  </si>
-  <si>
     <t>Plane #96</t>
   </si>
   <si>
@@ -413,6 +410,12 @@
     <t>Plane #98</t>
   </si>
   <si>
+    <t>Rare Minerals</t>
+  </si>
+  <si>
+    <t>Mail Packages</t>
+  </si>
+  <si>
     <t>Plane #99</t>
   </si>
   <si>
@@ -422,12 +425,12 @@
     <t>Plane #101</t>
   </si>
   <si>
-    <t>Specialty Chemicals</t>
-  </si>
-  <si>
     <t>Plane #102</t>
   </si>
   <si>
+    <t>Livestock Feed</t>
+  </si>
+  <si>
     <t>Plane #103</t>
   </si>
   <si>
@@ -437,15 +440,12 @@
     <t>Plane #105</t>
   </si>
   <si>
+    <t>Broadcasting Equipment</t>
+  </si>
+  <si>
     <t>Plane #106</t>
   </si>
   <si>
-    <t>Rare Minerals</t>
-  </si>
-  <si>
-    <t>Mail Packages</t>
-  </si>
-  <si>
     <t>Plane #107</t>
   </si>
   <si>
@@ -458,7 +458,7 @@
     <t>Plane #110</t>
   </si>
   <si>
-    <t>Livestock Feed</t>
+    <t>Hazardous Materials</t>
   </si>
   <si>
     <t>Plane #111</t>
@@ -467,10 +467,13 @@
     <t>Plane #112</t>
   </si>
   <si>
+    <t>Shipbuilding Parts</t>
+  </si>
+  <si>
     <t>Plane #113</t>
   </si>
   <si>
-    <t>Broadcasting Equipment</t>
+    <t>Explosives (Secured)</t>
   </si>
   <si>
     <t>Plane #114</t>
@@ -488,24 +491,21 @@
     <t>Plane #118</t>
   </si>
   <si>
-    <t>Hazardous Materials</t>
-  </si>
-  <si>
     <t>Plane #119</t>
   </si>
   <si>
+    <t>Telescope Components</t>
+  </si>
+  <si>
+    <t>Perfumes &amp; Cosmetics</t>
+  </si>
+  <si>
     <t>Plane #120</t>
   </si>
   <si>
-    <t>Shipbuilding Parts</t>
-  </si>
-  <si>
     <t>Plane #121</t>
   </si>
   <si>
-    <t>Explosives (Secured)</t>
-  </si>
-  <si>
     <t>Plane #122</t>
   </si>
   <si>
@@ -515,72 +515,72 @@
     <t>Plane #124</t>
   </si>
   <si>
+    <t>Seismic Monitoring Equipment</t>
+  </si>
+  <si>
     <t>Plane #125</t>
   </si>
   <si>
     <t>Plane #126</t>
   </si>
   <si>
+    <t>High-Security Vaults</t>
+  </si>
+  <si>
+    <t>Medical Isotopes</t>
+  </si>
+  <si>
     <t>Plane #127</t>
   </si>
   <si>
-    <t>Telescope Components</t>
-  </si>
-  <si>
-    <t>Perfumes &amp; Cosmetics</t>
-  </si>
-  <si>
     <t>Plane #128</t>
   </si>
   <si>
     <t>Plane #129</t>
   </si>
   <si>
+    <t>Satellite Fuel</t>
+  </si>
+  <si>
     <t>Plane #130</t>
   </si>
   <si>
     <t>Plane #131</t>
   </si>
   <si>
+    <t>Prototype Drones</t>
+  </si>
+  <si>
     <t>Plane #132</t>
   </si>
   <si>
-    <t>Seismic Monitoring Equipment</t>
-  </si>
-  <si>
     <t>Plane #133</t>
   </si>
   <si>
     <t>Plane #134</t>
   </si>
   <si>
-    <t>High-Security Vaults</t>
-  </si>
-  <si>
-    <t>Medical Isotopes</t>
-  </si>
-  <si>
     <t>Plane #135</t>
   </si>
   <si>
+    <t>Ancient Manuscripts</t>
+  </si>
+  <si>
     <t>Plane #136</t>
   </si>
   <si>
     <t>Plane #137</t>
   </si>
   <si>
-    <t>Satellite Fuel</t>
-  </si>
-  <si>
     <t>Plane #138</t>
   </si>
   <si>
+    <t>Confidential Documents</t>
+  </si>
+  <si>
     <t>Plane #139</t>
   </si>
   <si>
-    <t>Prototype Drones</t>
-  </si>
-  <si>
     <t>Plane #140</t>
   </si>
   <si>
@@ -593,21 +593,24 @@
     <t>Plane #143</t>
   </si>
   <si>
-    <t>Ancient Manuscripts</t>
-  </si>
-  <si>
     <t>Plane #144</t>
   </si>
   <si>
+    <t>High-Energy Batteries</t>
+  </si>
+  <si>
     <t>Plane #145</t>
   </si>
   <si>
+    <t>Luxury Vehicles</t>
+  </si>
+  <si>
+    <t>Medical Supplies</t>
+  </si>
+  <si>
     <t>Plane #146</t>
   </si>
   <si>
-    <t>Confidential Documents</t>
-  </si>
-  <si>
     <t>Plane #147</t>
   </si>
   <si>
@@ -617,64 +620,64 @@
     <t>Plane #149</t>
   </si>
   <si>
+    <t>Textiles</t>
+  </si>
+  <si>
     <t>Plane #150</t>
   </si>
   <si>
+    <t>VIP Shipments</t>
+  </si>
+  <si>
     <t>Plane #151</t>
   </si>
   <si>
     <t>Plane #152</t>
   </si>
   <si>
-    <t>High-Energy Batteries</t>
+    <t>Art Restoration Equipment</t>
   </si>
   <si>
     <t>Plane #153</t>
   </si>
   <si>
-    <t>Luxury Vehicles</t>
-  </si>
-  <si>
-    <t>Medical Supplies</t>
-  </si>
-  <si>
     <t>Plane #154</t>
   </si>
   <si>
+    <t>Fresh Fruits</t>
+  </si>
+  <si>
     <t>Plane #155</t>
   </si>
   <si>
     <t>Plane #156</t>
   </si>
   <si>
+    <t>Cold Storage Chemicals</t>
+  </si>
+  <si>
     <t>Plane #157</t>
   </si>
   <si>
-    <t>Textiles</t>
-  </si>
-  <si>
     <t>Plane #158</t>
   </si>
   <si>
-    <t>VIP Shipments</t>
-  </si>
-  <si>
     <t>Plane #159</t>
   </si>
   <si>
     <t>Plane #160</t>
   </si>
   <si>
-    <t>Art Restoration Equipment</t>
-  </si>
-  <si>
     <t>Plane #161</t>
   </si>
   <si>
+    <t>Customs-Sealed Goods</t>
+  </si>
+  <si>
     <t>Plane #162</t>
   </si>
   <si>
-    <t>Fresh Fruits</t>
+    <t>Prototype Equipment</t>
   </si>
   <si>
     <t>Plane #163</t>
@@ -683,58 +686,64 @@
     <t>Plane #164</t>
   </si>
   <si>
-    <t>Cold Storage Chemicals</t>
-  </si>
-  <si>
     <t>Plane #165</t>
   </si>
   <si>
+    <t>Sports Equipment</t>
+  </si>
+  <si>
     <t>Plane #166</t>
   </si>
   <si>
     <t>Plane #167</t>
   </si>
   <si>
+    <t>Luxury Watches</t>
+  </si>
+  <si>
     <t>Plane #168</t>
   </si>
   <si>
+    <t>Microprocessors</t>
+  </si>
+  <si>
     <t>Plane #169</t>
   </si>
   <si>
-    <t>Customs-Sealed Goods</t>
-  </si>
-  <si>
     <t>Plane #170</t>
   </si>
   <si>
-    <t>Prototype Equipment</t>
-  </si>
-  <si>
     <t>Plane #171</t>
   </si>
   <si>
+    <t>Handcrafted Furniture</t>
+  </si>
+  <si>
     <t>Plane #172</t>
   </si>
   <si>
     <t>Plane #173</t>
   </si>
   <si>
-    <t>Sports Equipment</t>
-  </si>
-  <si>
     <t>Plane #174</t>
   </si>
   <si>
+    <t>Autonomous Vehicles</t>
+  </si>
+  <si>
     <t>Plane #175</t>
   </si>
   <si>
-    <t>Luxury Watches</t>
+    <t>Encrypted Data Drives</t>
   </si>
   <si>
     <t>Plane #176</t>
   </si>
   <si>
-    <t>Microprocessors</t>
+    <t>Medical Equipment</t>
+  </si>
+  <si>
+    <t>Bottled Water</t>
   </si>
   <si>
     <t>Plane #177</t>
@@ -746,34 +755,28 @@
     <t>Plane #179</t>
   </si>
   <si>
-    <t>Handcrafted Furniture</t>
+    <t>Raw Materials</t>
   </si>
   <si>
     <t>Plane #180</t>
   </si>
   <si>
+    <t>Museum Exhibits</t>
+  </si>
+  <si>
     <t>Plane #181</t>
   </si>
   <si>
     <t>Plane #182</t>
   </si>
   <si>
-    <t>Autonomous Vehicles</t>
-  </si>
-  <si>
     <t>Plane #183</t>
   </si>
   <si>
-    <t>Encrypted Data Drives</t>
-  </si>
-  <si>
     <t>Plane #184</t>
   </si>
   <si>
-    <t>Medical Equipment</t>
-  </si>
-  <si>
-    <t>Bottled Water</t>
+    <t>Frozen Food</t>
   </si>
   <si>
     <t>Plane #185</t>
@@ -782,40 +785,43 @@
     <t>Plane #186</t>
   </si>
   <si>
+    <t>Scientific Samples</t>
+  </si>
+  <si>
     <t>Plane #187</t>
   </si>
   <si>
-    <t>Raw Materials</t>
-  </si>
-  <si>
     <t>Plane #188</t>
   </si>
   <si>
-    <t>Museum Exhibits</t>
-  </si>
-  <si>
     <t>Plane #189</t>
   </si>
   <si>
+    <t>Industrial Machinery</t>
+  </si>
+  <si>
     <t>Plane #190</t>
   </si>
   <si>
+    <t>Artwork</t>
+  </si>
+  <si>
     <t>Plane #191</t>
   </si>
   <si>
     <t>Plane #192</t>
   </si>
   <si>
-    <t>Frozen Food</t>
-  </si>
-  <si>
     <t>Plane #193</t>
   </si>
   <si>
+    <t>Film Production Equipment</t>
+  </si>
+  <si>
     <t>Plane #194</t>
   </si>
   <si>
-    <t>Scientific Samples</t>
+    <t>Geological Specimens</t>
   </si>
   <si>
     <t>Plane #195</t>
@@ -827,13 +833,10 @@
     <t>Plane #197</t>
   </si>
   <si>
-    <t>Industrial Machinery</t>
-  </si>
-  <si>
     <t>Plane #198</t>
   </si>
   <si>
-    <t>Artwork</t>
+    <t>Artisanal Goods</t>
   </si>
   <si>
     <t>Plane #199</t>
@@ -845,13 +848,13 @@
     <t>Plane #201</t>
   </si>
   <si>
-    <t>Film Production Equipment</t>
+    <t>Aerospace Components</t>
   </si>
   <si>
     <t>Plane #202</t>
   </si>
   <si>
-    <t>Geological Specimens</t>
+    <t>High-Value Electronics</t>
   </si>
   <si>
     <t>Plane #203</t>
@@ -866,30 +869,42 @@
     <t>Plane #206</t>
   </si>
   <si>
-    <t>Artisanal Goods</t>
+    <t>Helicopter Parts</t>
+  </si>
+  <si>
+    <t>Satellite Parts</t>
   </si>
   <si>
     <t>Plane #207</t>
   </si>
   <si>
+    <t>Solar Panels</t>
+  </si>
+  <si>
     <t>Plane #208</t>
   </si>
   <si>
     <t>Plane #209</t>
   </si>
   <si>
-    <t>Aerospace Components</t>
+    <t>Unmanned Aerial Vehicles</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Raw Materials</t>
   </si>
   <si>
     <t>Plane #210</t>
   </si>
   <si>
-    <t>High-Value Electronics</t>
+    <t>Railway Equipment</t>
   </si>
   <si>
     <t>Plane #211</t>
   </si>
   <si>
+    <t>Medical Research Samples</t>
+  </si>
+  <si>
     <t>Plane #212</t>
   </si>
   <si>
@@ -899,40 +914,28 @@
     <t>Plane #214</t>
   </si>
   <si>
-    <t>Helicopter Parts</t>
-  </si>
-  <si>
-    <t>Satellite Parts</t>
-  </si>
-  <si>
     <t>Plane #215</t>
   </si>
   <si>
-    <t>Solar Panels</t>
-  </si>
-  <si>
     <t>Plane #216</t>
   </si>
   <si>
     <t>Plane #217</t>
   </si>
   <si>
-    <t>Unmanned Aerial Vehicles</t>
-  </si>
-  <si>
-    <t>Pharmaceutical Raw Materials</t>
+    <t>Frozen Plasma</t>
   </si>
   <si>
     <t>Plane #218</t>
   </si>
   <si>
-    <t>Railway Equipment</t>
+    <t>Aircraft Spare Parts</t>
   </si>
   <si>
     <t>Plane #219</t>
   </si>
   <si>
-    <t>Medical Research Samples</t>
+    <t>Pharmaceuticals</t>
   </si>
   <si>
     <t>Plane #220</t>
@@ -941,49 +944,49 @@
     <t>Plane #221</t>
   </si>
   <si>
+    <t>Scientific Instruments</t>
+  </si>
+  <si>
     <t>Plane #222</t>
   </si>
   <si>
     <t>Plane #223</t>
   </si>
   <si>
+    <t>Research Equipment</t>
+  </si>
+  <si>
     <t>Plane #224</t>
   </si>
   <si>
     <t>Plane #225</t>
   </si>
   <si>
-    <t>Frozen Plasma</t>
-  </si>
-  <si>
     <t>Plane #226</t>
   </si>
   <si>
-    <t>Aircraft Spare Parts</t>
-  </si>
-  <si>
     <t>Plane #227</t>
   </si>
   <si>
-    <t>Pharmaceuticals</t>
-  </si>
-  <si>
     <t>Plane #228</t>
   </si>
   <si>
+    <t>Spacecraft Components</t>
+  </si>
+  <si>
     <t>Plane #229</t>
   </si>
   <si>
-    <t>Scientific Instruments</t>
-  </si>
-  <si>
     <t>Plane #230</t>
   </si>
   <si>
+    <t>Engineering Tools</t>
+  </si>
+  <si>
     <t>Plane #231</t>
   </si>
   <si>
-    <t>Research Equipment</t>
+    <t>Private Belongings</t>
   </si>
   <si>
     <t>Plane #232</t>
@@ -992,6 +995,9 @@
     <t>Plane #233</t>
   </si>
   <si>
+    <t>Biohazard Samples</t>
+  </si>
+  <si>
     <t>Plane #234</t>
   </si>
   <si>
@@ -1001,33 +1007,27 @@
     <t>Plane #236</t>
   </si>
   <si>
-    <t>Spacecraft Components</t>
-  </si>
-  <si>
     <t>Plane #237</t>
   </si>
   <si>
+    <t>Cooling Systems</t>
+  </si>
+  <si>
     <t>Plane #238</t>
   </si>
   <si>
-    <t>Engineering Tools</t>
-  </si>
-  <si>
     <t>Plane #239</t>
   </si>
   <si>
-    <t>Private Belongings</t>
-  </si>
-  <si>
     <t>Plane #240</t>
   </si>
   <si>
+    <t>Navigation Systems</t>
+  </si>
+  <si>
     <t>Plane #241</t>
   </si>
   <si>
-    <t>Biohazard Samples</t>
-  </si>
-  <si>
     <t>Plane #242</t>
   </si>
   <si>
@@ -1040,7 +1040,7 @@
     <t>Plane #245</t>
   </si>
   <si>
-    <t>Cooling Systems</t>
+    <t>AI Hardware</t>
   </si>
   <si>
     <t>Plane #246</t>
@@ -1052,7 +1052,7 @@
     <t>Plane #248</t>
   </si>
   <si>
-    <t>Navigation Systems</t>
+    <t>Tactical Gear</t>
   </si>
   <si>
     <t>Plane #249</t>
@@ -1067,37 +1067,43 @@
     <t>Plane #252</t>
   </si>
   <si>
+    <t>Hybrid Vehicle Components</t>
+  </si>
+  <si>
     <t>Plane #253</t>
   </si>
   <si>
-    <t>AI Hardware</t>
-  </si>
-  <si>
     <t>Plane #254</t>
   </si>
   <si>
+    <t>Nuclear Fuel Rods</t>
+  </si>
+  <si>
     <t>Plane #255</t>
   </si>
   <si>
+    <t>Deep-Sea Exploration Gear</t>
+  </si>
+  <si>
     <t>Plane #256</t>
   </si>
   <si>
-    <t>Tactical Gear</t>
-  </si>
-  <si>
     <t>Plane #257</t>
   </si>
   <si>
     <t>Plane #258</t>
   </si>
   <si>
+    <t>Precision Optics</t>
+  </si>
+  <si>
     <t>Plane #259</t>
   </si>
   <si>
     <t>Plane #260</t>
   </si>
   <si>
-    <t>Hybrid Vehicle Components</t>
+    <t>Prototype Rockets</t>
   </si>
   <si>
     <t>Plane #261</t>
@@ -1106,46 +1112,10 @@
     <t>Plane #262</t>
   </si>
   <si>
-    <t>Nuclear Fuel Rods</t>
-  </si>
-  <si>
     <t>Plane #263</t>
   </si>
   <si>
-    <t>Deep-Sea Exploration Gear</t>
-  </si>
-  <si>
     <t>Plane #264</t>
-  </si>
-  <si>
-    <t>Plane #265</t>
-  </si>
-  <si>
-    <t>Plane #266</t>
-  </si>
-  <si>
-    <t>Precision Optics</t>
-  </si>
-  <si>
-    <t>Plane #267</t>
-  </si>
-  <si>
-    <t>Plane #268</t>
-  </si>
-  <si>
-    <t>Prototype Rockets</t>
-  </si>
-  <si>
-    <t>Plane #269</t>
-  </si>
-  <si>
-    <t>Plane #270</t>
-  </si>
-  <si>
-    <t>Plane #271</t>
-  </si>
-  <si>
-    <t>Plane #272</t>
   </si>
 </sst>
 </file>
@@ -1190,7 +1160,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D488"/>
+  <dimension ref="A1:D480"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1227,7 +1197,7 @@
         <v>10.0</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="3">
@@ -1241,7 +1211,7 @@
         <v>10.0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
@@ -1255,7 +1225,7 @@
         <v>10.0</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -1269,7 +1239,7 @@
         <v>10.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="6">
@@ -1283,7 +1253,7 @@
         <v>10.0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="7">
@@ -1297,7 +1267,7 @@
         <v>10.0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="8">
@@ -1311,7 +1281,7 @@
         <v>10.0</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -1325,7 +1295,7 @@
         <v>10.0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
@@ -1339,7 +1309,7 @@
         <v>10.0</v>
       </c>
       <c r="D10" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -1353,7 +1323,7 @@
         <v>10.0</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
@@ -1367,7 +1337,7 @@
         <v>10.0</v>
       </c>
       <c r="D12" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="13">
@@ -1381,7 +1351,7 @@
         <v>10.0</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="14">
@@ -1395,7 +1365,7 @@
         <v>10.0</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="15">
@@ -1409,7 +1379,7 @@
         <v>10.0</v>
       </c>
       <c r="D15" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="16">
@@ -1423,7 +1393,7 @@
         <v>10.0</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="17">
@@ -1437,7 +1407,7 @@
         <v>10.0</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="18">
@@ -1451,7 +1421,7 @@
         <v>10.0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="19">
@@ -1465,7 +1435,7 @@
         <v>10.0</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="20">
@@ -1479,7 +1449,7 @@
         <v>10.0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="21">
@@ -1493,7 +1463,7 @@
         <v>10.0</v>
       </c>
       <c r="D21" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="22">
@@ -1507,7 +1477,7 @@
         <v>10.0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="23">
@@ -1521,7 +1491,7 @@
         <v>10.0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="24">
@@ -1535,7 +1505,7 @@
         <v>10.0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="25">
@@ -1549,7 +1519,7 @@
         <v>10.0</v>
       </c>
       <c r="D25" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="26">
@@ -1563,7 +1533,7 @@
         <v>10.0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="27">
@@ -1577,7 +1547,7 @@
         <v>10.0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="28">
@@ -1591,7 +1561,7 @@
         <v>10.0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="29">
@@ -1605,7 +1575,7 @@
         <v>10.0</v>
       </c>
       <c r="D29" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="30">
@@ -1619,7 +1589,7 @@
         <v>10.0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="31">
@@ -1633,7 +1603,7 @@
         <v>10.0</v>
       </c>
       <c r="D31" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="32">
@@ -1647,7 +1617,7 @@
         <v>10.0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="33">
@@ -1661,7 +1631,7 @@
         <v>10.0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="34">
@@ -1675,35 +1645,32 @@
         <v>10.0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
       </c>
       <c r="C35" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="0">
-        <v>45</v>
-      </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="n">
-        <v>10.0</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.0</v>
+      <c r="B36" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C36" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D36" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
     <row r="37">
@@ -1714,1194 +1681,1194 @@
         <v>43</v>
       </c>
       <c r="C37" t="n">
-        <v>10.0</v>
+        <v>9.0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s" s="0">
+      <c r="B38" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="C38" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D38" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>48</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="B40" t="s" s="0">
+        <v>47</v>
+      </c>
+      <c r="C40" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D40" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>50</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="B42" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="B38" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="C42" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D42" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>51</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="n">
         <v>9.0</v>
       </c>
-      <c r="D38" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="C39" t="n" s="0">
+      <c r="D43" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C44" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D39" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="s" s="0">
-        <v>50</v>
-      </c>
-      <c r="B40" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="D44" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
         <v>9.0</v>
       </c>
-      <c r="D40" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="B41" t="s" s="0">
-        <v>48</v>
-      </c>
-      <c r="C41" t="n" s="0">
+      <c r="D45" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="B46" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C46" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D41" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="s" s="0">
-        <v>52</v>
-      </c>
-      <c r="B42" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" t="n">
+      <c r="D46" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47" t="n">
         <v>9.0</v>
       </c>
-      <c r="D42" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="B43" t="s" s="0">
-        <v>51</v>
-      </c>
-      <c r="C43" t="n" s="0">
+      <c r="D47" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="B48" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C48" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D43" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="s" s="0">
+      <c r="D48" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
         <v>54</v>
       </c>
-      <c r="B44" t="s">
-        <v>47</v>
-      </c>
-      <c r="C44" t="n">
+      <c r="C49" t="n">
         <v>9.0</v>
       </c>
-      <c r="D44" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C45" t="n" s="0">
+      <c r="D49" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C50" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D45" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="B46" t="s">
-        <v>47</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="D50" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>56</v>
+      </c>
+      <c r="B51" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" t="n">
         <v>9.0</v>
       </c>
-      <c r="D46" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C47" t="n" s="0">
+      <c r="D51" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="B52" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C52" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D47" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="B48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C48" t="n">
+      <c r="D52" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>57</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="n">
         <v>9.0</v>
       </c>
-      <c r="D48" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="B49" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C49" t="n" s="0">
+      <c r="D53" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="B54" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C54" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D49" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="s" s="0">
-        <v>57</v>
-      </c>
-      <c r="B50" t="s">
-        <v>47</v>
-      </c>
-      <c r="C50" t="n">
+      <c r="D54" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" t="n">
         <v>9.0</v>
       </c>
-      <c r="D50" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="B51" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C51" t="n" s="0">
+      <c r="D55" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="s" s="0">
+        <v>49</v>
+      </c>
+      <c r="C56" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D51" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="s" s="0">
+      <c r="D56" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>60</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="B58" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" t="n">
+      <c r="C58" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D58" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>61</v>
+      </c>
+      <c r="B59" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" t="n">
         <v>9.0</v>
       </c>
-      <c r="D52" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="B53" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C53" t="n" s="0">
+      <c r="D59" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="B60" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="C60" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D53" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="s" s="0">
-        <v>60</v>
-      </c>
-      <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" t="n">
+      <c r="D60" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="B61" t="s">
+        <v>54</v>
+      </c>
+      <c r="C61" t="n">
         <v>9.0</v>
       </c>
-      <c r="D54" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="B55" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C55" t="n" s="0">
+      <c r="D61" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C62" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D55" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" t="n">
+      <c r="D62" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>64</v>
+      </c>
+      <c r="B63" t="s">
+        <v>54</v>
+      </c>
+      <c r="C63" t="n">
         <v>9.0</v>
       </c>
-      <c r="D56" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="B57" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C57" t="n" s="0">
+      <c r="D63" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D57" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="s" s="0">
+      <c r="D64" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D65" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B58" t="s">
-        <v>58</v>
-      </c>
-      <c r="C58" t="n">
+      <c r="C66" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D66" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
         <v>9.0</v>
       </c>
-      <c r="D58" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="B59" t="s" s="0">
-        <v>53</v>
-      </c>
-      <c r="C59" t="n" s="0">
+      <c r="D67" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="C68" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D59" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="s" s="0">
-        <v>64</v>
-      </c>
-      <c r="B60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C60" t="n">
+      <c r="D68" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>65</v>
+      </c>
+      <c r="C69" t="n">
         <v>9.0</v>
       </c>
-      <c r="D60" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="C61" t="n" s="0">
+      <c r="D69" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C70" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D61" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="s" s="0">
+      <c r="D70" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
         <v>65</v>
       </c>
-      <c r="B62" t="s">
-        <v>58</v>
-      </c>
-      <c r="C62" t="n">
+      <c r="C71" t="n">
         <v>9.0</v>
       </c>
-      <c r="D62" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="B63" t="s" s="0">
-        <v>63</v>
-      </c>
-      <c r="C63" t="n" s="0">
+      <c r="D71" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C72" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D63" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="s" s="0">
-        <v>67</v>
-      </c>
-      <c r="B64" t="s">
-        <v>58</v>
-      </c>
-      <c r="C64" t="n">
+      <c r="D72" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>65</v>
+      </c>
+      <c r="C73" t="n">
         <v>9.0</v>
       </c>
-      <c r="D64" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="B65" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="C65" t="n" s="0">
+      <c r="D73" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="s" s="0">
+        <v>68</v>
+      </c>
+      <c r="C74" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D65" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="s" s="0">
+      <c r="D74" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B75" t="s">
+        <v>65</v>
+      </c>
+      <c r="C75" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D75" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B66" t="s">
-        <v>58</v>
-      </c>
-      <c r="C66" t="n">
+      <c r="C76" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D76" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>73</v>
+      </c>
+      <c r="C77" t="n">
         <v>9.0</v>
       </c>
-      <c r="D66" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="C67" t="n" s="0">
+      <c r="D77" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C78" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D67" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="B68" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" t="n">
+      <c r="D78" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B79" t="s">
+        <v>73</v>
+      </c>
+      <c r="C79" t="n">
         <v>9.0</v>
       </c>
-      <c r="D68" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="B69" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="C69" t="n" s="0">
+      <c r="D79" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C80" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D69" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" t="n">
+      <c r="D80" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>77</v>
+      </c>
+      <c r="B81" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" t="n">
         <v>9.0</v>
       </c>
-      <c r="D70" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="B71" t="s" s="0">
-        <v>66</v>
-      </c>
-      <c r="C71" t="n" s="0">
+      <c r="D81" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C82" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D71" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="s" s="0">
+      <c r="D82" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B83" t="s">
         <v>73</v>
       </c>
-      <c r="B72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" t="n">
+      <c r="C83" t="n">
         <v>9.0</v>
       </c>
-      <c r="D72" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="B73" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="C73" t="n" s="0">
+      <c r="D83" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="B84" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C84" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D73" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="s" s="0">
+      <c r="D84" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="B85" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D85" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="s" s="0">
         <v>74</v>
       </c>
-      <c r="B74" t="s">
-        <v>69</v>
-      </c>
-      <c r="C74" t="n">
+      <c r="C86" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D86" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B87" t="s">
+        <v>73</v>
+      </c>
+      <c r="C87" t="n">
         <v>9.0</v>
       </c>
-      <c r="D74" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="B75" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="C75" t="n" s="0">
+      <c r="D87" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="B88" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C88" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D75" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="s" s="0">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>69</v>
-      </c>
-      <c r="C76" t="n">
+      <c r="D88" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s" s="0">
+        <v>81</v>
+      </c>
+      <c r="B89" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" t="n">
         <v>9.0</v>
       </c>
-      <c r="D76" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="B77" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="C77" t="n" s="0">
+      <c r="D89" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="B90" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C90" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D77" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s" s="0">
-        <v>76</v>
-      </c>
-      <c r="B78" t="s">
-        <v>69</v>
-      </c>
-      <c r="C78" t="n">
+      <c r="D90" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B91" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" t="n">
         <v>9.0</v>
       </c>
-      <c r="D78" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="B79" t="s" s="0">
-        <v>72</v>
-      </c>
-      <c r="C79" t="n" s="0">
+      <c r="D91" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C92" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D79" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s" s="0">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>77</v>
-      </c>
-      <c r="C80" t="n">
+      <c r="D92" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B93" t="s">
+        <v>82</v>
+      </c>
+      <c r="C93" t="n">
         <v>9.0</v>
       </c>
-      <c r="D80" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="B81" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C81" t="n" s="0">
+      <c r="D93" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="B94" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="C94" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D81" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s" s="0">
-        <v>80</v>
-      </c>
-      <c r="B82" t="s">
-        <v>77</v>
-      </c>
-      <c r="C82" t="n">
+      <c r="D94" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B95" t="s">
+        <v>82</v>
+      </c>
+      <c r="C95" t="n">
         <v>9.0</v>
       </c>
-      <c r="D82" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="B83" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C83" t="n" s="0">
+      <c r="D95" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="B96" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C96" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D83" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="B84" t="s">
-        <v>77</v>
-      </c>
-      <c r="C84" t="n">
+      <c r="D96" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B97" t="s">
+        <v>87</v>
+      </c>
+      <c r="C97" t="n">
         <v>9.0</v>
       </c>
-      <c r="D84" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="B85" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C85" t="n" s="0">
+      <c r="D97" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C98" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D85" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="0">
-        <v>82</v>
-      </c>
-      <c r="B86" t="s">
-        <v>77</v>
-      </c>
-      <c r="C86" t="n">
+      <c r="D98" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="B99" t="s">
+        <v>87</v>
+      </c>
+      <c r="C99" t="n">
         <v>9.0</v>
       </c>
-      <c r="D86" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="B87" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C87" t="n" s="0">
+      <c r="D99" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="B100" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C100" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D87" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s" s="0">
-        <v>83</v>
-      </c>
-      <c r="B88" t="s">
-        <v>77</v>
-      </c>
-      <c r="C88" t="n">
+      <c r="D100" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B101" t="s">
+        <v>87</v>
+      </c>
+      <c r="C101" t="n">
         <v>9.0</v>
       </c>
-      <c r="D88" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="B89" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C89" t="n" s="0">
+      <c r="D101" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="B102" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C102" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D89" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s" s="0">
-        <v>84</v>
-      </c>
-      <c r="B90" t="s">
-        <v>77</v>
-      </c>
-      <c r="C90" t="n">
+      <c r="D102" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" t="n">
         <v>9.0</v>
       </c>
-      <c r="D90" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="B91" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C91" t="n" s="0">
+      <c r="D103" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C104" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D91" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s" s="0">
+      <c r="D104" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="B105" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D105" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="B106" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B92" t="s">
-        <v>77</v>
-      </c>
-      <c r="C92" t="n">
+      <c r="C106" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D106" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B107" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" t="n">
         <v>9.0</v>
       </c>
-      <c r="D92" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="B93" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C93" t="n" s="0">
+      <c r="D107" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="B108" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="C108" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D93" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="B94" t="s">
-        <v>86</v>
-      </c>
-      <c r="C94" t="n">
+      <c r="D108" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B109" t="s">
+        <v>94</v>
+      </c>
+      <c r="C109" t="n">
         <v>9.0</v>
       </c>
-      <c r="D94" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="B95" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C95" t="n" s="0">
+      <c r="D109" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C110" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D95" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s" s="0">
-        <v>88</v>
-      </c>
-      <c r="B96" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96" t="n">
+      <c r="D110" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B111" t="s">
+        <v>94</v>
+      </c>
+      <c r="C111" t="n">
         <v>9.0</v>
       </c>
-      <c r="D96" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="B97" t="s" s="0">
-        <v>78</v>
-      </c>
-      <c r="C97" t="n" s="0">
+      <c r="D111" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="B112" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C112" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D97" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s" s="0">
-        <v>90</v>
-      </c>
-      <c r="B98" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" t="n">
+      <c r="D112" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B113" t="s">
+        <v>99</v>
+      </c>
+      <c r="C113" t="n">
         <v>9.0</v>
       </c>
-      <c r="D98" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="B99" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C99" t="n" s="0">
+      <c r="D113" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="B114" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C114" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D99" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s" s="0">
-        <v>92</v>
-      </c>
-      <c r="B100" t="s">
-        <v>91</v>
-      </c>
-      <c r="C100" t="n">
+      <c r="D114" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B115" t="s">
+        <v>101</v>
+      </c>
+      <c r="C115" t="n">
         <v>9.0</v>
       </c>
-      <c r="D100" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="B101" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C101" t="n" s="0">
+      <c r="D115" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C116" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D101" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s" s="0">
-        <v>93</v>
-      </c>
-      <c r="B102" t="s">
-        <v>91</v>
-      </c>
-      <c r="C102" t="n">
+      <c r="D116" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B117" t="s">
+        <v>101</v>
+      </c>
+      <c r="C117" t="n">
         <v>9.0</v>
       </c>
-      <c r="D102" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="B103" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C103" t="n" s="0">
+      <c r="D117" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="B118" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C118" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D103" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s" s="0">
-        <v>94</v>
-      </c>
-      <c r="B104" t="s">
-        <v>91</v>
-      </c>
-      <c r="C104" t="n">
+      <c r="D118" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B119" t="s">
+        <v>101</v>
+      </c>
+      <c r="C119" t="n">
         <v>9.0</v>
       </c>
-      <c r="D104" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="B105" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C105" t="n" s="0">
+      <c r="D119" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="B120" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="C120" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="D105" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s" s="0">
+      <c r="D120" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B121" t="s">
+        <v>101</v>
+      </c>
+      <c r="C121" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D121" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="B106" t="s">
-        <v>95</v>
-      </c>
-      <c r="C106" t="n">
+      <c r="C122" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="D122" t="n" s="0">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="s" s="0">
+        <v>107</v>
+      </c>
+      <c r="B123" t="s">
+        <v>106</v>
+      </c>
+      <c r="C123" t="n">
         <v>9.0</v>
       </c>
-      <c r="D106" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="B107" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C107" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D107" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s" s="0">
-        <v>97</v>
-      </c>
-      <c r="B108" t="s">
-        <v>95</v>
-      </c>
-      <c r="C108" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D108" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="B109" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C109" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D109" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="B110" t="s">
-        <v>98</v>
-      </c>
-      <c r="C110" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D110" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="B111" t="s" s="0">
-        <v>89</v>
-      </c>
-      <c r="C111" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D111" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s" s="0">
-        <v>101</v>
-      </c>
-      <c r="B112" t="s">
-        <v>98</v>
-      </c>
-      <c r="C112" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D112" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="B113" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="C113" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D113" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s" s="0">
-        <v>102</v>
-      </c>
-      <c r="B114" t="s">
-        <v>98</v>
-      </c>
-      <c r="C114" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D114" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="B115" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="C115" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D115" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s" s="0">
-        <v>104</v>
-      </c>
-      <c r="B116" t="s">
-        <v>103</v>
-      </c>
-      <c r="C116" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="B117" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="C117" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D117" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s" s="0">
-        <v>106</v>
-      </c>
-      <c r="B118" t="s">
-        <v>105</v>
-      </c>
-      <c r="C118" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D118" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="B119" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="C119" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D119" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s" s="0">
-        <v>107</v>
-      </c>
-      <c r="B120" t="s">
-        <v>105</v>
-      </c>
-      <c r="C120" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D120" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="B121" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="C121" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D121" t="n" s="0">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="B122" t="s">
-        <v>105</v>
-      </c>
-      <c r="C122" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D122" t="n">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="B123" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="C123" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D123" t="n" s="0">
-        <v>0.0</v>
+      <c r="D123" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="0">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B124" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C124" t="n">
         <v>9.0</v>
       </c>
       <c r="D124" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="125">
-      <c r="B125" t="s" s="0">
-        <v>100</v>
-      </c>
-      <c r="C125" t="n" s="0">
-        <v>1.0</v>
-      </c>
-      <c r="D125" t="n" s="0">
-        <v>0.0</v>
+      <c r="A125" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B125" t="s">
+        <v>106</v>
+      </c>
+      <c r="C125" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="D125" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="0">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B126" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C126" t="n">
         <v>9.0</v>
       </c>
       <c r="D126" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="s" s="0">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B127" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C127" t="n">
         <v>9.0</v>
       </c>
       <c r="D127" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="0">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B128" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C128" t="n">
         <v>9.0</v>
       </c>
       <c r="D128" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="0">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B129" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C129" t="n">
         <v>9.0</v>
       </c>
       <c r="D129" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="B130" t="s">
+        <v>114</v>
+      </c>
+      <c r="C130" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D130" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B130" t="s">
-        <v>110</v>
-      </c>
-      <c r="C130" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D130" t="n">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s" s="0">
-        <v>116</v>
-      </c>
-      <c r="B131" t="s">
-        <v>110</v>
-      </c>
-      <c r="C131" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D131" t="n">
-        <v>1.0</v>
+      <c r="C131" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D131" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
     <row r="132">
@@ -2909,513 +2876,504 @@
         <v>117</v>
       </c>
       <c r="B132" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C132" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D132" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="0">
-        <v>119</v>
-      </c>
-      <c r="B133" t="s">
-        <v>118</v>
-      </c>
-      <c r="C133" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D133" t="n">
-        <v>1.0</v>
+      <c r="B133" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C133" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D133" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s" s="0">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B134" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C134" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D134" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="s" s="0">
-        <v>121</v>
-      </c>
-      <c r="B135" t="s">
-        <v>118</v>
-      </c>
-      <c r="C135" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D135" t="n">
-        <v>1.0</v>
+      <c r="B135" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C135" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D135" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="0">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B136" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C136" t="n">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="D136" t="n">
-        <v>1.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="0">
-        <v>123</v>
-      </c>
-      <c r="B137" t="s">
-        <v>118</v>
-      </c>
-      <c r="C137" t="n">
-        <v>9.0</v>
-      </c>
-      <c r="D137" t="n">
-        <v>1.0</v>
+      <c r="B137" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="C137" t="n" s="0">
+        <v>2.0</v>
+      </c>
+      <c r="D137" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="0">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B138" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C138" t="n">
         <v>8.0</v>
       </c>
       <c r="D138" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="139">
       <c r="B139" t="s" s="0">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C139" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D139" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="0">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B140" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C140" t="n">
         <v>8.0</v>
       </c>
       <c r="D140" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="141">
       <c r="B141" t="s" s="0">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C141" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D141" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="0">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B142" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C142" t="n">
         <v>8.0</v>
       </c>
       <c r="D142" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="143">
       <c r="B143" t="s" s="0">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C143" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D143" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="0">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B144" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C144" t="n">
         <v>8.0</v>
       </c>
       <c r="D144" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="145">
       <c r="B145" t="s" s="0">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C145" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D145" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="0">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B146" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="C146" t="n">
         <v>8.0</v>
       </c>
       <c r="D146" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="147">
       <c r="B147" t="s" s="0">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C147" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D147" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="0">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B148" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C148" t="n">
         <v>8.0</v>
       </c>
       <c r="D148" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="149">
       <c r="B149" t="s" s="0">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C149" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D149" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="0">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="B150" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C150" t="n">
         <v>8.0</v>
       </c>
       <c r="D150" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="151">
       <c r="B151" t="s" s="0">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C151" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D151" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="0">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B152" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C152" t="n">
         <v>8.0</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="153">
       <c r="B153" t="s" s="0">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C153" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D153" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="0">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="B154" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C154" t="n">
         <v>8.0</v>
       </c>
       <c r="D154" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="155">
       <c r="B155" t="s" s="0">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C155" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D155" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="0">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B156" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C156" t="n">
         <v>8.0</v>
       </c>
       <c r="D156" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="157">
       <c r="B157" t="s" s="0">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="C157" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D157" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="0">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B158" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C158" t="n">
         <v>8.0</v>
       </c>
       <c r="D158" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="159">
       <c r="B159" t="s" s="0">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C159" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D159" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="0">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B160" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C160" t="n">
         <v>8.0</v>
       </c>
       <c r="D160" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="161">
       <c r="B161" t="s" s="0">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C161" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D161" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="0">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B162" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C162" t="n">
         <v>8.0</v>
       </c>
       <c r="D162" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="163">
       <c r="B163" t="s" s="0">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C163" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D163" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="0">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B164" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="C164" t="n">
         <v>8.0</v>
       </c>
       <c r="D164" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="165">
       <c r="B165" t="s" s="0">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C165" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D165" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="0">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B166" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C166" t="n">
         <v>8.0</v>
       </c>
       <c r="D166" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="167">
       <c r="B167" t="s" s="0">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C167" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D167" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="0">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B168" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C168" t="n">
         <v>8.0</v>
       </c>
       <c r="D168" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="169">
       <c r="B169" t="s" s="0">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C169" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D169" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="0">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B170" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="C170" t="n">
         <v>8.0</v>
       </c>
       <c r="D170" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="171">
       <c r="B171" t="s" s="0">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C171" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D171" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="0">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B172" t="s">
         <v>142</v>
@@ -3424,23 +3382,23 @@
         <v>8.0</v>
       </c>
       <c r="D172" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="173">
       <c r="B173" t="s" s="0">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C173" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D173" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="0">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B174" t="s">
         <v>142</v>
@@ -3449,23 +3407,23 @@
         <v>8.0</v>
       </c>
       <c r="D174" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="175">
       <c r="B175" t="s" s="0">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C175" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D175" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="0">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B176" t="s">
         <v>142</v>
@@ -3474,23 +3432,23 @@
         <v>8.0</v>
       </c>
       <c r="D176" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="177">
       <c r="B177" t="s" s="0">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C177" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D177" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="0">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B178" t="s">
         <v>142</v>
@@ -3499,57 +3457,57 @@
         <v>8.0</v>
       </c>
       <c r="D178" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="179">
       <c r="B179" t="s" s="0">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C179" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D179" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="0">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B180" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C180" t="n">
         <v>8.0</v>
       </c>
       <c r="D180" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="181">
       <c r="B181" t="s" s="0">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="C181" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D181" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="0">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B182" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C182" t="n">
         <v>8.0</v>
       </c>
       <c r="D182" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="183">
@@ -3560,21 +3518,21 @@
         <v>2.0</v>
       </c>
       <c r="D183" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="0">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B184" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C184" t="n">
         <v>8.0</v>
       </c>
       <c r="D184" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="185">
@@ -3585,21 +3543,21 @@
         <v>2.0</v>
       </c>
       <c r="D185" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="0">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B186" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C186" t="n">
         <v>8.0</v>
       </c>
       <c r="D186" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="187">
@@ -3610,337 +3568,337 @@
         <v>2.0</v>
       </c>
       <c r="D187" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="s" s="0">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B188" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C188" t="n">
         <v>8.0</v>
       </c>
       <c r="D188" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="189">
       <c r="B189" t="s" s="0">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C189" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D189" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="s" s="0">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B190" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C190" t="n">
         <v>8.0</v>
       </c>
       <c r="D190" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="191">
       <c r="B191" t="s" s="0">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C191" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D191" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="s" s="0">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B192" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C192" t="n">
         <v>8.0</v>
       </c>
       <c r="D192" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="193">
       <c r="B193" t="s" s="0">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C193" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D193" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="s" s="0">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B194" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C194" t="n">
         <v>8.0</v>
       </c>
       <c r="D194" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="195">
       <c r="B195" t="s" s="0">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C195" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D195" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="s" s="0">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B196" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C196" t="n">
         <v>8.0</v>
       </c>
       <c r="D196" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="197">
       <c r="B197" t="s" s="0">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C197" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D197" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="s" s="0">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B198" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="C198" t="n">
         <v>8.0</v>
       </c>
       <c r="D198" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="199">
       <c r="B199" t="s" s="0">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="C199" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D199" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="s" s="0">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B200" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C200" t="n">
         <v>8.0</v>
       </c>
       <c r="D200" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="201">
       <c r="B201" t="s" s="0">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C201" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D201" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="s" s="0">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B202" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C202" t="n">
         <v>8.0</v>
       </c>
       <c r="D202" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="203">
       <c r="B203" t="s" s="0">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C203" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D203" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="s" s="0">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B204" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C204" t="n">
         <v>8.0</v>
       </c>
       <c r="D204" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="205">
       <c r="B205" t="s" s="0">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C205" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D205" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="s" s="0">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B206" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C206" t="n">
         <v>8.0</v>
       </c>
       <c r="D206" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="207">
       <c r="B207" t="s" s="0">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C207" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D207" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="s" s="0">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B208" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C208" t="n">
         <v>8.0</v>
       </c>
       <c r="D208" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="209">
       <c r="B209" t="s" s="0">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C209" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D209" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="s" s="0">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B210" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C210" t="n">
         <v>8.0</v>
       </c>
       <c r="D210" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="211">
       <c r="B211" t="s" s="0">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C211" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D211" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="s" s="0">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B212" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C212" t="n">
         <v>8.0</v>
       </c>
       <c r="D212" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="213">
       <c r="B213" t="s" s="0">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C213" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D213" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="s" s="0">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B214" t="s">
         <v>170</v>
@@ -3949,7 +3907,7 @@
         <v>8.0</v>
       </c>
       <c r="D214" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="215">
@@ -3960,12 +3918,12 @@
         <v>2.0</v>
       </c>
       <c r="D215" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="s" s="0">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B216" t="s">
         <v>170</v>
@@ -3974,7 +3932,7 @@
         <v>8.0</v>
       </c>
       <c r="D216" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="217">
@@ -3985,21 +3943,21 @@
         <v>2.0</v>
       </c>
       <c r="D217" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="s" s="0">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B218" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C218" t="n">
         <v>8.0</v>
       </c>
       <c r="D218" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="219">
@@ -4010,21 +3968,21 @@
         <v>2.0</v>
       </c>
       <c r="D219" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="s" s="0">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B220" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C220" t="n">
         <v>8.0</v>
       </c>
       <c r="D220" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="221">
@@ -4035,257 +3993,269 @@
         <v>2.0</v>
       </c>
       <c r="D221" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="s" s="0">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B222" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C222" t="n">
         <v>8.0</v>
       </c>
       <c r="D222" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="223">
       <c r="B223" t="s" s="0">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="C223" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D223" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="s" s="0">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B224" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C224" t="n">
         <v>8.0</v>
       </c>
       <c r="D224" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="225">
       <c r="B225" t="s" s="0">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C225" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D225" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="s" s="0">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B226" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C226" t="n">
         <v>8.0</v>
       </c>
       <c r="D226" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="227">
       <c r="B227" t="s" s="0">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C227" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D227" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="s" s="0">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B228" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C228" t="n">
         <v>8.0</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="229">
       <c r="B229" t="s" s="0">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C229" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D229" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="s" s="0">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B230" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C230" t="n">
         <v>8.0</v>
       </c>
       <c r="D230" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="231">
       <c r="B231" t="s" s="0">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C231" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D231" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="s" s="0">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B232" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C232" t="n">
         <v>8.0</v>
       </c>
       <c r="D232" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="233">
       <c r="B233" t="s" s="0">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C233" t="n" s="0">
         <v>2.0</v>
       </c>
       <c r="D233" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="s" s="0">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B234" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
       <c r="C234" t="n">
         <v>8.0</v>
       </c>
       <c r="D234" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="235">
-      <c r="B235" t="s" s="0">
-        <v>188</v>
-      </c>
-      <c r="C235" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="D235" t="n" s="0">
-        <v>0.0</v>
+      <c r="A235" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B235" t="s">
+        <v>175</v>
+      </c>
+      <c r="C235" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D235" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="s" s="0">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B236" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C236" t="n">
         <v>8.0</v>
       </c>
       <c r="D236" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="0">
-        <v>188</v>
-      </c>
-      <c r="C237" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="D237" t="n" s="0">
-        <v>0.0</v>
+      <c r="A237" t="s" s="0">
+        <v>189</v>
+      </c>
+      <c r="B237" t="s">
+        <v>187</v>
+      </c>
+      <c r="C237" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D237" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="s" s="0">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B238" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C238" t="n">
         <v>8.0</v>
       </c>
       <c r="D238" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="239">
-      <c r="B239" t="s" s="0">
-        <v>188</v>
-      </c>
-      <c r="C239" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="D239" t="n" s="0">
-        <v>0.0</v>
+      <c r="A239" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="B239" t="s">
+        <v>187</v>
+      </c>
+      <c r="C239" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D239" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="s" s="0">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B240" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C240" t="n">
         <v>8.0</v>
       </c>
       <c r="D240" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="241">
-      <c r="B241" t="s" s="0">
+      <c r="A241" t="s" s="0">
         <v>193</v>
       </c>
-      <c r="C241" t="n" s="0">
-        <v>2.0</v>
-      </c>
-      <c r="D241" t="n" s="0">
-        <v>0.0</v>
+      <c r="B241" t="s">
+        <v>187</v>
+      </c>
+      <c r="C241" t="n">
+        <v>8.0</v>
+      </c>
+      <c r="D241" t="n">
+        <v>7.0</v>
       </c>
     </row>
     <row r="242">
@@ -4293,41 +4263,38 @@
         <v>195</v>
       </c>
       <c r="B242" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="C242" t="n">
         <v>8.0</v>
       </c>
       <c r="D242" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B243" t="s">
         <v>196</v>
       </c>
-      <c r="B243" t="s">
-        <v>185</v>
-      </c>
       <c r="C243" t="n">
-        <v>8.0</v>
+        <v>7.0</v>
       </c>
       <c r="D243" t="n">
-        <v>2.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="0">
-        <v>198</v>
-      </c>
-      <c r="B244" t="s">
+      <c r="B244" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="C244" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D244" t="n">
-        <v>2.0</v>
+      <c r="C244" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D244" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
     <row r="245">
@@ -4335,722 +4302,713 @@
         <v>199</v>
       </c>
       <c r="B245" t="s">
+        <v>196</v>
+      </c>
+      <c r="C245" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D245" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="B246" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="C245" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D245" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" t="s" s="0">
-        <v>200</v>
-      </c>
-      <c r="B246" t="s">
-        <v>197</v>
-      </c>
-      <c r="C246" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D246" t="n">
-        <v>2.0</v>
+      <c r="C246" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D246" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="s" s="0">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B247" t="s">
+        <v>196</v>
+      </c>
+      <c r="C247" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D247" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="B248" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="C247" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D247" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" t="s" s="0">
-        <v>202</v>
-      </c>
-      <c r="B248" t="s">
-        <v>197</v>
-      </c>
-      <c r="C248" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D248" t="n">
-        <v>2.0</v>
+      <c r="C248" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D248" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="s" s="0">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B249" t="s">
+        <v>196</v>
+      </c>
+      <c r="C249" t="n">
+        <v>7.0</v>
+      </c>
+      <c r="D249" t="n">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="C249" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D249" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="A250" t="s" s="0">
-        <v>205</v>
-      </c>
-      <c r="B250" t="s">
-        <v>204</v>
-      </c>
-      <c r="C250" t="n">
-        <v>8.0</v>
-      </c>
-      <c r="D250" t="n">
-        <v>2.0</v>
+      <c r="C250" t="n" s="0">
+        <v>3.0</v>
+      </c>
+      <c r="D250" t="n" s="0">
+        <v>5.0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="s" s="0">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B251" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C251" t="n">
         <v>7.0</v>
       </c>
       <c r="D251" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="252">
       <c r="B252" t="s" s="0">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C252" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D252" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="0">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B253" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C253" t="n">
         <v>7.0</v>
       </c>
       <c r="D253" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="254">
       <c r="B254" t="s" s="0">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C254" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D254" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="s" s="0">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B255" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C255" t="n">
         <v>7.0</v>
       </c>
       <c r="D255" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="256">
       <c r="B256" t="s" s="0">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C256" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D256" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="s" s="0">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B257" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C257" t="n">
         <v>7.0</v>
       </c>
       <c r="D257" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="258">
       <c r="B258" t="s" s="0">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C258" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D258" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="s" s="0">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B259" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C259" t="n">
         <v>7.0</v>
       </c>
       <c r="D259" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="260">
       <c r="B260" t="s" s="0">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="C260" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D260" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="s" s="0">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B261" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C261" t="n">
         <v>7.0</v>
       </c>
       <c r="D261" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="262">
       <c r="B262" t="s" s="0">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C262" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D262" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="s" s="0">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B263" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C263" t="n">
         <v>7.0</v>
       </c>
       <c r="D263" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="264">
       <c r="B264" t="s" s="0">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C264" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D264" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="s" s="0">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B265" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C265" t="n">
         <v>7.0</v>
       </c>
       <c r="D265" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="266">
       <c r="B266" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C266" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D266" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="s" s="0">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B267" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C267" t="n">
         <v>7.0</v>
       </c>
       <c r="D267" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="268">
       <c r="B268" t="s" s="0">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C268" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D268" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="s" s="0">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B269" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C269" t="n">
         <v>7.0</v>
       </c>
       <c r="D269" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="270">
       <c r="B270" t="s" s="0">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C270" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D270" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="s" s="0">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B271" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C271" t="n">
         <v>7.0</v>
       </c>
       <c r="D271" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="272">
       <c r="B272" t="s" s="0">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="C272" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D272" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="s" s="0">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B273" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="C273" t="n">
         <v>7.0</v>
       </c>
       <c r="D273" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="274">
       <c r="B274" t="s" s="0">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C274" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D274" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="s" s="0">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B275" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C275" t="n">
         <v>7.0</v>
       </c>
       <c r="D275" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="276">
       <c r="B276" t="s" s="0">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="C276" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D276" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="s" s="0">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B277" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C277" t="n">
         <v>7.0</v>
       </c>
       <c r="D277" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="278">
       <c r="B278" t="s" s="0">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C278" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D278" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="s" s="0">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B279" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C279" t="n">
         <v>7.0</v>
       </c>
       <c r="D279" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="280">
       <c r="B280" t="s" s="0">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C280" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D280" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="s" s="0">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B281" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C281" t="n">
         <v>7.0</v>
       </c>
       <c r="D281" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="282">
       <c r="B282" t="s" s="0">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C282" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D282" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="s" s="0">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B283" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C283" t="n">
         <v>7.0</v>
       </c>
       <c r="D283" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="284">
       <c r="B284" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C284" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D284" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="s" s="0">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B285" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C285" t="n">
         <v>7.0</v>
       </c>
       <c r="D285" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="286">
       <c r="B286" t="s" s="0">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="C286" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D286" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="s" s="0">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B287" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="C287" t="n">
         <v>7.0</v>
       </c>
       <c r="D287" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="288">
       <c r="B288" t="s" s="0">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C288" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D288" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="s" s="0">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B289" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C289" t="n">
         <v>7.0</v>
       </c>
       <c r="D289" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="290">
       <c r="B290" t="s" s="0">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C290" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D290" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="s" s="0">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B291" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C291" t="n">
         <v>7.0</v>
       </c>
       <c r="D291" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="292">
       <c r="B292" t="s" s="0">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C292" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D292" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="s" s="0">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B293" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C293" t="n">
         <v>7.0</v>
       </c>
       <c r="D293" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="294">
       <c r="B294" t="s" s="0">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C294" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D294" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="s" s="0">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B295" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C295" t="n">
         <v>7.0</v>
       </c>
       <c r="D295" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="296">
       <c r="B296" t="s" s="0">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C296" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D296" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="s" s="0">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B297" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C297" t="n">
         <v>7.0</v>
       </c>
       <c r="D297" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="298">
       <c r="B298" t="s" s="0">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C298" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D298" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="s" s="0">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B299" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C299" t="n">
         <v>7.0</v>
       </c>
       <c r="D299" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="300">
       <c r="B300" t="s" s="0">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C300" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D300" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="s" s="0">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B301" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C301" t="n">
         <v>7.0</v>
       </c>
       <c r="D301" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="302">
@@ -5061,1846 +5019,1846 @@
         <v>3.0</v>
       </c>
       <c r="D302" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="s" s="0">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B303" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C303" t="n">
         <v>7.0</v>
       </c>
       <c r="D303" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="304">
       <c r="B304" t="s" s="0">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C304" t="n" s="0">
         <v>3.0</v>
       </c>
       <c r="D304" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" t="s" s="0">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B305" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C305" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D305" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="306">
       <c r="B306" t="s" s="0">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C306" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D306" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="s" s="0">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B307" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C307" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D307" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="308">
       <c r="B308" t="s" s="0">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C308" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D308" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" t="s" s="0">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B309" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C309" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D309" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="310">
       <c r="B310" t="s" s="0">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C310" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D310" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" t="s" s="0">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B311" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C311" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
       <c r="D311" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="312">
       <c r="B312" t="s" s="0">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C312" t="n" s="0">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
       <c r="D312" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" t="s" s="0">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B313" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C313" t="n">
         <v>6.0</v>
       </c>
       <c r="D313" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="314">
       <c r="B314" t="s" s="0">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C314" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D314" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="s" s="0">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B315" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C315" t="n">
         <v>6.0</v>
       </c>
       <c r="D315" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="316">
       <c r="B316" t="s" s="0">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C316" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D316" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="s" s="0">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B317" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C317" t="n">
         <v>6.0</v>
       </c>
       <c r="D317" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="318">
       <c r="B318" t="s" s="0">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C318" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D318" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="s" s="0">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B319" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C319" t="n">
         <v>6.0</v>
       </c>
       <c r="D319" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="320">
       <c r="B320" t="s" s="0">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C320" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D320" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="s" s="0">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="B321" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C321" t="n">
         <v>6.0</v>
       </c>
       <c r="D321" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="322">
       <c r="B322" t="s" s="0">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C322" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D322" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="0">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B323" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C323" t="n">
         <v>6.0</v>
       </c>
       <c r="D323" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="324">
       <c r="B324" t="s" s="0">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C324" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D324" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="s" s="0">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B325" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C325" t="n">
         <v>6.0</v>
       </c>
       <c r="D325" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="326">
       <c r="B326" t="s" s="0">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C326" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D326" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="0">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B327" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C327" t="n">
         <v>6.0</v>
       </c>
       <c r="D327" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="328">
       <c r="B328" t="s" s="0">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C328" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D328" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="0">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B329" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C329" t="n">
         <v>6.0</v>
       </c>
       <c r="D329" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="330">
       <c r="B330" t="s" s="0">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="C330" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D330" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="0">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B331" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C331" t="n">
         <v>6.0</v>
       </c>
       <c r="D331" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="332">
       <c r="B332" t="s" s="0">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C332" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D332" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s" s="0">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B333" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C333" t="n">
         <v>6.0</v>
       </c>
       <c r="D333" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="334">
       <c r="B334" t="s" s="0">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C334" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D334" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" t="s" s="0">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="B335" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C335" t="n">
         <v>6.0</v>
       </c>
       <c r="D335" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="336">
       <c r="B336" t="s" s="0">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C336" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D336" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="s" s="0">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="B337" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C337" t="n">
         <v>6.0</v>
       </c>
       <c r="D337" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="338">
       <c r="B338" t="s" s="0">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C338" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D338" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="0">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B339" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="C339" t="n">
         <v>6.0</v>
       </c>
       <c r="D339" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="340">
       <c r="B340" t="s" s="0">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C340" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D340" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="0">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B341" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C341" t="n">
         <v>6.0</v>
       </c>
       <c r="D341" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="342">
       <c r="B342" t="s" s="0">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C342" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D342" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="0">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="B343" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C343" t="n">
         <v>6.0</v>
       </c>
       <c r="D343" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="344">
       <c r="B344" t="s" s="0">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C344" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D344" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s" s="0">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B345" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C345" t="n">
         <v>6.0</v>
       </c>
       <c r="D345" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="346">
       <c r="B346" t="s" s="0">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="C346" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D346" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s" s="0">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B347" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C347" t="n">
         <v>6.0</v>
       </c>
       <c r="D347" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="348">
       <c r="B348" t="s" s="0">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C348" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D348" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="0">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B349" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C349" t="n">
         <v>6.0</v>
       </c>
       <c r="D349" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="350">
       <c r="B350" t="s" s="0">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C350" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D350" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="s" s="0">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B351" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C351" t="n">
         <v>6.0</v>
       </c>
       <c r="D351" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="352">
       <c r="B352" t="s" s="0">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C352" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D352" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="0">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B353" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="C353" t="n">
         <v>6.0</v>
       </c>
       <c r="D353" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="354">
       <c r="B354" t="s" s="0">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C354" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D354" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="s" s="0">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B355" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C355" t="n">
         <v>6.0</v>
       </c>
       <c r="D355" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="356">
       <c r="B356" t="s" s="0">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C356" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D356" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s" s="0">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B357" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C357" t="n">
         <v>6.0</v>
       </c>
       <c r="D357" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="358">
       <c r="B358" t="s" s="0">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C358" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D358" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="0">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B359" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C359" t="n">
         <v>6.0</v>
       </c>
       <c r="D359" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="360">
       <c r="B360" t="s" s="0">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C360" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D360" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="0">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="B361" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="C361" t="n">
         <v>6.0</v>
       </c>
       <c r="D361" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="362">
       <c r="B362" t="s" s="0">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C362" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D362" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s" s="0">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B363" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="C363" t="n">
         <v>6.0</v>
       </c>
       <c r="D363" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="364">
       <c r="B364" t="s" s="0">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C364" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D364" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="0">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B365" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C365" t="n">
         <v>6.0</v>
       </c>
       <c r="D365" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="366">
       <c r="B366" t="s" s="0">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="C366" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D366" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s" s="0">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B367" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C367" t="n">
         <v>6.0</v>
       </c>
       <c r="D367" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="368">
       <c r="B368" t="s" s="0">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C368" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D368" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" t="s" s="0">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B369" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C369" t="n">
         <v>6.0</v>
       </c>
       <c r="D369" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="370">
       <c r="B370" t="s" s="0">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C370" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D370" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s" s="0">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B371" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C371" t="n">
         <v>6.0</v>
       </c>
       <c r="D371" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="372">
       <c r="B372" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C372" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D372" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s" s="0">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B373" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C373" t="n">
         <v>6.0</v>
       </c>
       <c r="D373" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="374">
       <c r="B374" t="s" s="0">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C374" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D374" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s" s="0">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B375" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C375" t="n">
         <v>6.0</v>
       </c>
       <c r="D375" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="376">
       <c r="B376" t="s" s="0">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C376" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D376" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s" s="0">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B377" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C377" t="n">
         <v>6.0</v>
       </c>
       <c r="D377" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="378">
       <c r="B378" t="s" s="0">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="C378" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D378" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s" s="0">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="B379" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C379" t="n">
         <v>6.0</v>
       </c>
       <c r="D379" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="380">
       <c r="B380" t="s" s="0">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C380" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D380" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="s" s="0">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B381" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C381" t="n">
         <v>6.0</v>
       </c>
       <c r="D381" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="382">
       <c r="B382" t="s" s="0">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C382" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D382" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" t="s" s="0">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B383" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C383" t="n">
         <v>6.0</v>
       </c>
       <c r="D383" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="384">
       <c r="B384" t="s" s="0">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C384" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D384" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s" s="0">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B385" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C385" t="n">
         <v>6.0</v>
       </c>
       <c r="D385" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="386">
       <c r="B386" t="s" s="0">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="C386" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D386" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s" s="0">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="B387" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C387" t="n">
         <v>6.0</v>
       </c>
       <c r="D387" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="388">
       <c r="B388" t="s" s="0">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C388" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D388" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s" s="0">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B389" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C389" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D389" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="390">
       <c r="B390" t="s" s="0">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C390" t="n" s="0">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D390" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s" s="0">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B391" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C391" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D391" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="392">
       <c r="B392" t="s" s="0">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C392" t="n" s="0">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D392" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" t="s" s="0">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B393" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C393" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D393" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="394">
       <c r="B394" t="s" s="0">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C394" t="n" s="0">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D394" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" t="s" s="0">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="B395" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C395" t="n">
-        <v>6.0</v>
+        <v>5.0</v>
       </c>
       <c r="D395" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="396">
       <c r="B396" t="s" s="0">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C396" t="n" s="0">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
       <c r="D396" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s" s="0">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B397" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C397" t="n">
         <v>5.0</v>
       </c>
       <c r="D397" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="398">
       <c r="B398" t="s" s="0">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C398" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D398" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s" s="0">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B399" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C399" t="n">
         <v>5.0</v>
       </c>
       <c r="D399" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="400">
       <c r="B400" t="s" s="0">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C400" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D400" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s" s="0">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B401" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C401" t="n">
         <v>5.0</v>
       </c>
       <c r="D401" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="402">
       <c r="B402" t="s" s="0">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C402" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D402" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s" s="0">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="B403" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C403" t="n">
         <v>5.0</v>
       </c>
       <c r="D403" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="404">
       <c r="B404" t="s" s="0">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C404" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D404" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s" s="0">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B405" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C405" t="n">
         <v>5.0</v>
       </c>
       <c r="D405" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="406">
       <c r="B406" t="s" s="0">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C406" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D406" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s" s="0">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B407" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C407" t="n">
         <v>5.0</v>
       </c>
       <c r="D407" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="408">
       <c r="B408" t="s" s="0">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="C408" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D408" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s" s="0">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B409" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C409" t="n">
         <v>5.0</v>
       </c>
       <c r="D409" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="410">
       <c r="B410" t="s" s="0">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C410" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D410" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s" s="0">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="B411" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C411" t="n">
         <v>5.0</v>
       </c>
       <c r="D411" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="412">
       <c r="B412" t="s" s="0">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C412" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D412" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" t="s" s="0">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B413" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C413" t="n">
         <v>5.0</v>
       </c>
       <c r="D413" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="414">
       <c r="B414" t="s" s="0">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C414" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D414" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="s" s="0">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B415" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C415" t="n">
         <v>5.0</v>
       </c>
       <c r="D415" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="416">
       <c r="B416" t="s" s="0">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C416" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D416" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="s" s="0">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B417" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C417" t="n">
         <v>5.0</v>
       </c>
       <c r="D417" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="418">
       <c r="B418" t="s" s="0">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C418" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D418" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="s" s="0">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B419" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C419" t="n">
         <v>5.0</v>
       </c>
       <c r="D419" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="420">
       <c r="B420" t="s" s="0">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C420" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D420" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="s" s="0">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="B421" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C421" t="n">
         <v>5.0</v>
       </c>
       <c r="D421" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="422">
       <c r="B422" t="s" s="0">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C422" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D422" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" t="s" s="0">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B423" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C423" t="n">
         <v>5.0</v>
       </c>
       <c r="D423" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="424">
       <c r="B424" t="s" s="0">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C424" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D424" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" t="s" s="0">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B425" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C425" t="n">
         <v>5.0</v>
       </c>
       <c r="D425" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="426">
       <c r="B426" t="s" s="0">
-        <v>334</v>
+        <v>327</v>
       </c>
       <c r="C426" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D426" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="s" s="0">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B427" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C427" t="n">
         <v>5.0</v>
       </c>
       <c r="D427" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="428">
       <c r="B428" t="s" s="0">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C428" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D428" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" t="s" s="0">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B429" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C429" t="n">
         <v>5.0</v>
       </c>
       <c r="D429" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="430">
       <c r="B430" t="s" s="0">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C430" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D430" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="s" s="0">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B431" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C431" t="n">
         <v>5.0</v>
       </c>
       <c r="D431" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="432">
       <c r="B432" t="s" s="0">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C432" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D432" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" t="s" s="0">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B433" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="C433" t="n">
         <v>5.0</v>
       </c>
       <c r="D433" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="434">
       <c r="B434" t="s" s="0">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C434" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D434" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" t="s" s="0">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B435" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C435" t="n">
         <v>5.0</v>
       </c>
       <c r="D435" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="436">
       <c r="B436" t="s" s="0">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C436" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D436" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" t="s" s="0">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B437" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C437" t="n">
         <v>5.0</v>
       </c>
       <c r="D437" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="438">
       <c r="B438" t="s" s="0">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C438" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D438" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" t="s" s="0">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B439" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C439" t="n">
         <v>5.0</v>
       </c>
       <c r="D439" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="440">
       <c r="B440" t="s" s="0">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C440" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D440" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" t="s" s="0">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B441" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="C441" t="n">
         <v>5.0</v>
       </c>
       <c r="D441" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="442">
       <c r="B442" t="s" s="0">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="C442" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D442" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" t="s" s="0">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B443" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C443" t="n">
         <v>5.0</v>
       </c>
       <c r="D443" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="444">
       <c r="B444" t="s" s="0">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C444" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D444" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="s" s="0">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="B445" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C445" t="n">
         <v>5.0</v>
       </c>
       <c r="D445" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="446">
       <c r="B446" t="s" s="0">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C446" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D446" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" t="s" s="0">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B447" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C447" t="n">
         <v>5.0</v>
       </c>
       <c r="D447" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="448">
       <c r="B448" t="s" s="0">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C448" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D448" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" t="s" s="0">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B449" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="C449" t="n">
         <v>5.0</v>
       </c>
       <c r="D449" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="450">
@@ -6911,171 +6869,171 @@
         <v>5.0</v>
       </c>
       <c r="D450" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" t="s" s="0">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B451" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C451" t="n">
         <v>5.0</v>
       </c>
       <c r="D451" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="452">
       <c r="B452" t="s" s="0">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C452" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D452" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="s" s="0">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="B453" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C453" t="n">
         <v>5.0</v>
       </c>
       <c r="D453" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="454">
       <c r="B454" t="s" s="0">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C454" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D454" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" t="s" s="0">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="B455" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C455" t="n">
         <v>5.0</v>
       </c>
       <c r="D455" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="456">
       <c r="B456" t="s" s="0">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="C456" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D456" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="s" s="0">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B457" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C457" t="n">
         <v>5.0</v>
       </c>
       <c r="D457" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="458">
       <c r="B458" t="s" s="0">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C458" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D458" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" t="s" s="0">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B459" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C459" t="n">
         <v>5.0</v>
       </c>
       <c r="D459" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="460">
       <c r="B460" t="s" s="0">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C460" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D460" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" t="s" s="0">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="B461" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="C461" t="n">
         <v>5.0</v>
       </c>
       <c r="D461" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="462">
       <c r="B462" t="s" s="0">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C462" t="n" s="0">
         <v>5.0</v>
       </c>
       <c r="D462" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" t="s" s="0">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B463" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C463" t="n">
         <v>5.0</v>
       </c>
       <c r="D463" t="n">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="464">
@@ -7086,355 +7044,259 @@
         <v>5.0</v>
       </c>
       <c r="D464" t="n" s="0">
-        <v>0.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" t="s" s="0">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B465" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="C465" t="n">
         <v>5.0</v>
       </c>
       <c r="D465" t="n">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="466">
       <c r="B466" t="s" s="0">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="C466" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D466" t="n" s="0">
-        <v>0.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" t="s" s="0">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B467" t="s">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="C467" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D467" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="468">
       <c r="B468" t="s" s="0">
-        <v>361</v>
+        <v>303</v>
       </c>
       <c r="C468" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D468" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" t="s" s="0">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B469" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C469" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D469" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="470">
       <c r="B470" t="s" s="0">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C470" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D470" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" t="s" s="0">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="B471" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C471" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D471" t="n">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="472">
       <c r="B472" t="s" s="0">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C472" t="n" s="0">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D472" t="n" s="0">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" t="s" s="0">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="B473" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="C473" t="n">
-        <v>5.0</v>
+        <v>4.0</v>
       </c>
       <c r="D473" t="n">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="474">
       <c r="B474" t="s" s="0">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="C474" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D474" t="n" s="0">
-        <v>1.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" t="s" s="0">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B475" t="s">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="C475" t="n">
         <v>4.0</v>
       </c>
       <c r="D475" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="476">
       <c r="B476" t="s" s="0">
-        <v>313</v>
+        <v>363</v>
       </c>
       <c r="C476" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D476" t="n" s="0">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" t="s" s="0">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="B477" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C477" t="n">
         <v>4.0</v>
       </c>
       <c r="D477" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="478">
       <c r="B478" t="s" s="0">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C478" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D478" t="n" s="0">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" t="s" s="0">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B479" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C479" t="n">
         <v>4.0</v>
       </c>
       <c r="D479" t="n">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
     <row r="480">
       <c r="B480" t="s" s="0">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="C480" t="n" s="0">
         <v>4.0</v>
       </c>
       <c r="D480" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="s" s="0">
-        <v>374</v>
-      </c>
-      <c r="B481" t="s">
-        <v>370</v>
-      </c>
-      <c r="C481" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D481" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="482">
-      <c r="B482" t="s" s="0">
-        <v>373</v>
-      </c>
-      <c r="C482" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="D482" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="s" s="0">
-        <v>375</v>
-      </c>
-      <c r="B483" t="s">
-        <v>373</v>
-      </c>
-      <c r="C483" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D483" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="484">
-      <c r="B484" t="s" s="0">
-        <v>373</v>
-      </c>
-      <c r="C484" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="D484" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="s" s="0">
-        <v>376</v>
-      </c>
-      <c r="B485" t="s">
-        <v>373</v>
-      </c>
-      <c r="C485" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D485" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="486">
-      <c r="B486" t="s" s="0">
-        <v>373</v>
-      </c>
-      <c r="C486" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="D486" t="n" s="0">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="s" s="0">
-        <v>377</v>
-      </c>
-      <c r="B487" t="s">
-        <v>373</v>
-      </c>
-      <c r="C487" t="n">
-        <v>4.0</v>
-      </c>
-      <c r="D487" t="n">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="488">
-      <c r="B488" t="s" s="0">
-        <v>373</v>
-      </c>
-      <c r="C488" t="n" s="0">
-        <v>4.0</v>
-      </c>
-      <c r="D488" t="n" s="0">
-        <v>2.0</v>
+        <v>7.0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="215">
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="A72:A73"/>
-    <mergeCell ref="A74:A75"/>
-    <mergeCell ref="A76:A77"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="A80:A81"/>
-    <mergeCell ref="A82:A83"/>
-    <mergeCell ref="A84:A85"/>
-    <mergeCell ref="A86:A87"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A90:A91"/>
-    <mergeCell ref="A92:A93"/>
-    <mergeCell ref="A94:A95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:A99"/>
-    <mergeCell ref="A100:A101"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="A104:A105"/>
-    <mergeCell ref="A106:A107"/>
-    <mergeCell ref="A108:A109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="A112:A113"/>
-    <mergeCell ref="A114:A115"/>
-    <mergeCell ref="A116:A117"/>
-    <mergeCell ref="A118:A119"/>
-    <mergeCell ref="A120:A121"/>
-    <mergeCell ref="A122:A123"/>
-    <mergeCell ref="A124:A125"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="A97:A98"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="A111:A112"/>
+    <mergeCell ref="A113:A114"/>
+    <mergeCell ref="A115:A116"/>
+    <mergeCell ref="A117:A118"/>
+    <mergeCell ref="A119:A120"/>
+    <mergeCell ref="A121:A122"/>
+    <mergeCell ref="A130:A131"/>
+    <mergeCell ref="A132:A133"/>
+    <mergeCell ref="A134:A135"/>
+    <mergeCell ref="A136:A137"/>
     <mergeCell ref="A138:A139"/>
     <mergeCell ref="A140:A141"/>
     <mergeCell ref="A142:A143"/>
@@ -7483,10 +7345,10 @@
     <mergeCell ref="A228:A229"/>
     <mergeCell ref="A230:A231"/>
     <mergeCell ref="A232:A233"/>
-    <mergeCell ref="A234:A235"/>
-    <mergeCell ref="A236:A237"/>
-    <mergeCell ref="A238:A239"/>
-    <mergeCell ref="A240:A241"/>
+    <mergeCell ref="A243:A244"/>
+    <mergeCell ref="A245:A246"/>
+    <mergeCell ref="A247:A248"/>
+    <mergeCell ref="A249:A250"/>
     <mergeCell ref="A251:A252"/>
     <mergeCell ref="A253:A254"/>
     <mergeCell ref="A255:A256"/>
@@ -7602,10 +7464,6 @@
     <mergeCell ref="A475:A476"/>
     <mergeCell ref="A477:A478"/>
     <mergeCell ref="A479:A480"/>
-    <mergeCell ref="A481:A482"/>
-    <mergeCell ref="A483:A484"/>
-    <mergeCell ref="A485:A486"/>
-    <mergeCell ref="A487:A488"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/BFD_report.xlsx
+++ b/BFD_report.xlsx
@@ -1197,7 +1197,7 @@
         <v>10.0</v>
       </c>
       <c r="D2" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="3">
@@ -1211,7 +1211,7 @@
         <v>10.0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="4">
@@ -1225,7 +1225,7 @@
         <v>10.0</v>
       </c>
       <c r="D4" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="5">
@@ -1239,7 +1239,7 @@
         <v>10.0</v>
       </c>
       <c r="D5" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="6">
@@ -1253,7 +1253,7 @@
         <v>10.0</v>
       </c>
       <c r="D6" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="7">
@@ -1267,7 +1267,7 @@
         <v>10.0</v>
       </c>
       <c r="D7" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="8">
@@ -1281,7 +1281,7 @@
         <v>10.0</v>
       </c>
       <c r="D8" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="9">
@@ -1295,7 +1295,7 @@
         <v>10.0</v>
       </c>
       <c r="D9" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,7 +1309,7 @@
         <v>10.0</v>
       </c>
       <c r="D10" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="11">
@@ -1323,7 +1323,7 @@
         <v>10.0</v>
       </c>
       <c r="D11" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="12">
@@ -1337,7 +1337,7 @@
         <v>10.0</v>
       </c>
       <c r="D12" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="13">
@@ -1351,7 +1351,7 @@
         <v>10.0</v>
       </c>
       <c r="D13" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="14">
@@ -1365,7 +1365,7 @@
         <v>10.0</v>
       </c>
       <c r="D14" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="15">
@@ -1379,7 +1379,7 @@
         <v>10.0</v>
       </c>
       <c r="D15" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="16">
@@ -1393,7 +1393,7 @@
         <v>10.0</v>
       </c>
       <c r="D16" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="17">
@@ -1407,7 +1407,7 @@
         <v>10.0</v>
       </c>
       <c r="D17" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="18">
@@ -1421,7 +1421,7 @@
         <v>10.0</v>
       </c>
       <c r="D18" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="19">
@@ -1435,7 +1435,7 @@
         <v>10.0</v>
       </c>
       <c r="D19" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="20">
@@ -1449,7 +1449,7 @@
         <v>10.0</v>
       </c>
       <c r="D20" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="21">
@@ -1463,7 +1463,7 @@
         <v>10.0</v>
       </c>
       <c r="D21" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="22">
@@ -1477,7 +1477,7 @@
         <v>10.0</v>
       </c>
       <c r="D22" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="23">
@@ -1491,7 +1491,7 @@
         <v>10.0</v>
       </c>
       <c r="D23" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="24">
@@ -1505,7 +1505,7 @@
         <v>10.0</v>
       </c>
       <c r="D24" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="25">
@@ -1519,7 +1519,7 @@
         <v>10.0</v>
       </c>
       <c r="D25" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="26">
@@ -1533,7 +1533,7 @@
         <v>10.0</v>
       </c>
       <c r="D26" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="27">
@@ -1547,7 +1547,7 @@
         <v>10.0</v>
       </c>
       <c r="D27" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="28">
@@ -1561,7 +1561,7 @@
         <v>10.0</v>
       </c>
       <c r="D28" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="29">
@@ -1575,7 +1575,7 @@
         <v>10.0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="30">
@@ -1589,7 +1589,7 @@
         <v>10.0</v>
       </c>
       <c r="D30" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="31">
@@ -1603,7 +1603,7 @@
         <v>10.0</v>
       </c>
       <c r="D31" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="32">
@@ -1617,7 +1617,7 @@
         <v>10.0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="33">
@@ -1631,7 +1631,7 @@
         <v>10.0</v>
       </c>
       <c r="D33" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="34">
@@ -1645,7 +1645,7 @@
         <v>10.0</v>
       </c>
       <c r="D34" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="35">
@@ -1659,7 +1659,7 @@
         <v>9.0</v>
       </c>
       <c r="D35" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="36">
@@ -1670,7 +1670,7 @@
         <v>1.0</v>
       </c>
       <c r="D36" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="37">
@@ -1684,7 +1684,7 @@
         <v>9.0</v>
       </c>
       <c r="D37" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="38">
@@ -1695,7 +1695,7 @@
         <v>1.0</v>
       </c>
       <c r="D38" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="39">
@@ -1709,7 +1709,7 @@
         <v>9.0</v>
       </c>
       <c r="D39" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="40">
@@ -1720,7 +1720,7 @@
         <v>1.0</v>
       </c>
       <c r="D40" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="41">
@@ -1734,7 +1734,7 @@
         <v>9.0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="42">
@@ -1745,7 +1745,7 @@
         <v>1.0</v>
       </c>
       <c r="D42" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="43">
@@ -1759,7 +1759,7 @@
         <v>9.0</v>
       </c>
       <c r="D43" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="44">
@@ -1770,7 +1770,7 @@
         <v>1.0</v>
       </c>
       <c r="D44" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="45">
@@ -1784,7 +1784,7 @@
         <v>9.0</v>
       </c>
       <c r="D45" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="46">
@@ -1795,7 +1795,7 @@
         <v>1.0</v>
       </c>
       <c r="D46" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="47">
@@ -1809,7 +1809,7 @@
         <v>9.0</v>
       </c>
       <c r="D47" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="48">
@@ -1820,7 +1820,7 @@
         <v>1.0</v>
       </c>
       <c r="D48" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -1834,7 +1834,7 @@
         <v>9.0</v>
       </c>
       <c r="D49" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="50">
@@ -1845,7 +1845,7 @@
         <v>1.0</v>
       </c>
       <c r="D50" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="51">
@@ -1859,7 +1859,7 @@
         <v>9.0</v>
       </c>
       <c r="D51" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="52">
@@ -1870,7 +1870,7 @@
         <v>1.0</v>
       </c>
       <c r="D52" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="53">
@@ -1884,7 +1884,7 @@
         <v>9.0</v>
       </c>
       <c r="D53" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="54">
@@ -1895,7 +1895,7 @@
         <v>1.0</v>
       </c>
       <c r="D54" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="55">
@@ -1909,7 +1909,7 @@
         <v>9.0</v>
       </c>
       <c r="D55" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="56">
@@ -1920,7 +1920,7 @@
         <v>1.0</v>
       </c>
       <c r="D56" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="57">
@@ -1934,7 +1934,7 @@
         <v>9.0</v>
       </c>
       <c r="D57" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="58">
@@ -1945,7 +1945,7 @@
         <v>1.0</v>
       </c>
       <c r="D58" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="59">
@@ -1959,7 +1959,7 @@
         <v>9.0</v>
       </c>
       <c r="D59" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="60">
@@ -1970,7 +1970,7 @@
         <v>1.0</v>
       </c>
       <c r="D60" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="61">
@@ -1984,7 +1984,7 @@
         <v>9.0</v>
       </c>
       <c r="D61" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="62">
@@ -1995,7 +1995,7 @@
         <v>1.0</v>
       </c>
       <c r="D62" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="63">
@@ -2009,7 +2009,7 @@
         <v>9.0</v>
       </c>
       <c r="D63" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="64">
@@ -2020,7 +2020,7 @@
         <v>1.0</v>
       </c>
       <c r="D64" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="65">
@@ -2034,7 +2034,7 @@
         <v>9.0</v>
       </c>
       <c r="D65" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="66">
@@ -2045,7 +2045,7 @@
         <v>1.0</v>
       </c>
       <c r="D66" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="67">
@@ -2059,7 +2059,7 @@
         <v>9.0</v>
       </c>
       <c r="D67" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="68">
@@ -2070,7 +2070,7 @@
         <v>1.0</v>
       </c>
       <c r="D68" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="69">
@@ -2084,7 +2084,7 @@
         <v>9.0</v>
       </c>
       <c r="D69" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="70">
@@ -2095,7 +2095,7 @@
         <v>1.0</v>
       </c>
       <c r="D70" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="71">
@@ -2109,7 +2109,7 @@
         <v>9.0</v>
       </c>
       <c r="D71" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="72">
@@ -2120,7 +2120,7 @@
         <v>1.0</v>
       </c>
       <c r="D72" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="73">
@@ -2134,7 +2134,7 @@
         <v>9.0</v>
       </c>
       <c r="D73" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="74">
@@ -2145,7 +2145,7 @@
         <v>1.0</v>
       </c>
       <c r="D74" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="75">
@@ -2159,7 +2159,7 @@
         <v>9.0</v>
       </c>
       <c r="D75" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="76">
@@ -2170,7 +2170,7 @@
         <v>1.0</v>
       </c>
       <c r="D76" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="77">
@@ -2184,7 +2184,7 @@
         <v>9.0</v>
       </c>
       <c r="D77" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="78">
@@ -2195,7 +2195,7 @@
         <v>1.0</v>
       </c>
       <c r="D78" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="79">
@@ -2209,7 +2209,7 @@
         <v>9.0</v>
       </c>
       <c r="D79" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="80">
@@ -2220,7 +2220,7 @@
         <v>1.0</v>
       </c>
       <c r="D80" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="81">
@@ -2234,7 +2234,7 @@
         <v>9.0</v>
       </c>
       <c r="D81" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="82">
@@ -2245,7 +2245,7 @@
         <v>1.0</v>
       </c>
       <c r="D82" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="83">
@@ -2259,7 +2259,7 @@
         <v>9.0</v>
       </c>
       <c r="D83" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="84">
@@ -2270,7 +2270,7 @@
         <v>1.0</v>
       </c>
       <c r="D84" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="85">
@@ -2284,7 +2284,7 @@
         <v>9.0</v>
       </c>
       <c r="D85" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="86">
@@ -2295,7 +2295,7 @@
         <v>1.0</v>
       </c>
       <c r="D86" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="87">
@@ -2309,7 +2309,7 @@
         <v>9.0</v>
       </c>
       <c r="D87" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="88">
@@ -2320,7 +2320,7 @@
         <v>1.0</v>
       </c>
       <c r="D88" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="89">
@@ -2334,7 +2334,7 @@
         <v>9.0</v>
       </c>
       <c r="D89" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="90">
@@ -2345,7 +2345,7 @@
         <v>1.0</v>
       </c>
       <c r="D90" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="91">
@@ -2359,7 +2359,7 @@
         <v>9.0</v>
       </c>
       <c r="D91" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="92">
@@ -2370,7 +2370,7 @@
         <v>1.0</v>
       </c>
       <c r="D92" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="93">
@@ -2384,7 +2384,7 @@
         <v>9.0</v>
       </c>
       <c r="D93" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="94">
@@ -2395,7 +2395,7 @@
         <v>1.0</v>
       </c>
       <c r="D94" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="95">
@@ -2409,7 +2409,7 @@
         <v>9.0</v>
       </c>
       <c r="D95" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="96">
@@ -2420,7 +2420,7 @@
         <v>1.0</v>
       </c>
       <c r="D96" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="97">
@@ -2434,7 +2434,7 @@
         <v>9.0</v>
       </c>
       <c r="D97" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="98">
@@ -2445,7 +2445,7 @@
         <v>1.0</v>
       </c>
       <c r="D98" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="99">
@@ -2459,7 +2459,7 @@
         <v>9.0</v>
       </c>
       <c r="D99" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="100">
@@ -2470,7 +2470,7 @@
         <v>1.0</v>
       </c>
       <c r="D100" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="101">
@@ -2484,7 +2484,7 @@
         <v>9.0</v>
       </c>
       <c r="D101" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="102">
@@ -2495,7 +2495,7 @@
         <v>1.0</v>
       </c>
       <c r="D102" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="103">
@@ -2509,7 +2509,7 @@
         <v>9.0</v>
       </c>
       <c r="D103" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="104">
@@ -2520,7 +2520,7 @@
         <v>1.0</v>
       </c>
       <c r="D104" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="105">
@@ -2534,7 +2534,7 @@
         <v>9.0</v>
       </c>
       <c r="D105" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="106">
@@ -2545,7 +2545,7 @@
         <v>1.0</v>
       </c>
       <c r="D106" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="107">
@@ -2559,7 +2559,7 @@
         <v>9.0</v>
       </c>
       <c r="D107" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="108">
@@ -2570,7 +2570,7 @@
         <v>1.0</v>
       </c>
       <c r="D108" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="109">
@@ -2584,7 +2584,7 @@
         <v>9.0</v>
       </c>
       <c r="D109" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="110">
@@ -2595,7 +2595,7 @@
         <v>1.0</v>
       </c>
       <c r="D110" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="111">
@@ -2609,7 +2609,7 @@
         <v>9.0</v>
       </c>
       <c r="D111" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="112">
@@ -2620,7 +2620,7 @@
         <v>1.0</v>
       </c>
       <c r="D112" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="113">
@@ -2634,7 +2634,7 @@
         <v>9.0</v>
       </c>
       <c r="D113" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="114">
@@ -2645,7 +2645,7 @@
         <v>1.0</v>
       </c>
       <c r="D114" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="115">
@@ -2659,7 +2659,7 @@
         <v>9.0</v>
       </c>
       <c r="D115" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="116">
@@ -2670,7 +2670,7 @@
         <v>1.0</v>
       </c>
       <c r="D116" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="117">
@@ -2684,7 +2684,7 @@
         <v>9.0</v>
       </c>
       <c r="D117" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="118">
@@ -2695,7 +2695,7 @@
         <v>1.0</v>
       </c>
       <c r="D118" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="119">
@@ -2709,7 +2709,7 @@
         <v>9.0</v>
       </c>
       <c r="D119" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="120">
@@ -2720,7 +2720,7 @@
         <v>1.0</v>
       </c>
       <c r="D120" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="121">
@@ -2734,7 +2734,7 @@
         <v>9.0</v>
       </c>
       <c r="D121" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="122">
@@ -2745,7 +2745,7 @@
         <v>1.0</v>
       </c>
       <c r="D122" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="123">
@@ -2759,7 +2759,7 @@
         <v>9.0</v>
       </c>
       <c r="D123" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="124">
@@ -2773,7 +2773,7 @@
         <v>9.0</v>
       </c>
       <c r="D124" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="125">
@@ -2787,7 +2787,7 @@
         <v>9.0</v>
       </c>
       <c r="D125" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="126">
@@ -2801,7 +2801,7 @@
         <v>9.0</v>
       </c>
       <c r="D126" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="127">
@@ -2815,7 +2815,7 @@
         <v>9.0</v>
       </c>
       <c r="D127" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="128">
@@ -2829,7 +2829,7 @@
         <v>9.0</v>
       </c>
       <c r="D128" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="129">
@@ -2843,7 +2843,7 @@
         <v>9.0</v>
       </c>
       <c r="D129" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="130">
@@ -2857,7 +2857,7 @@
         <v>8.0</v>
       </c>
       <c r="D130" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="131">
@@ -2868,7 +2868,7 @@
         <v>2.0</v>
       </c>
       <c r="D131" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="132">
@@ -2882,7 +2882,7 @@
         <v>8.0</v>
       </c>
       <c r="D132" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="133">
@@ -2893,7 +2893,7 @@
         <v>2.0</v>
       </c>
       <c r="D133" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="134">
@@ -2907,7 +2907,7 @@
         <v>8.0</v>
       </c>
       <c r="D134" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="135">
@@ -2918,7 +2918,7 @@
         <v>2.0</v>
       </c>
       <c r="D135" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="136">
@@ -2932,7 +2932,7 @@
         <v>8.0</v>
       </c>
       <c r="D136" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="137">
@@ -2943,7 +2943,7 @@
         <v>2.0</v>
       </c>
       <c r="D137" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="138">
@@ -2957,7 +2957,7 @@
         <v>8.0</v>
       </c>
       <c r="D138" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="139">
@@ -2968,7 +2968,7 @@
         <v>2.0</v>
       </c>
       <c r="D139" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="140">
@@ -2982,7 +2982,7 @@
         <v>8.0</v>
       </c>
       <c r="D140" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="141">
@@ -2993,7 +2993,7 @@
         <v>2.0</v>
       </c>
       <c r="D141" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="142">
@@ -3007,7 +3007,7 @@
         <v>8.0</v>
       </c>
       <c r="D142" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="143">
@@ -3018,7 +3018,7 @@
         <v>2.0</v>
       </c>
       <c r="D143" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="144">
@@ -3032,7 +3032,7 @@
         <v>8.0</v>
       </c>
       <c r="D144" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="145">
@@ -3043,7 +3043,7 @@
         <v>2.0</v>
       </c>
       <c r="D145" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="146">
@@ -3057,7 +3057,7 @@
         <v>8.0</v>
       </c>
       <c r="D146" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="147">
@@ -3068,7 +3068,7 @@
         <v>2.0</v>
       </c>
       <c r="D147" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="148">
@@ -3082,7 +3082,7 @@
         <v>8.0</v>
       </c>
       <c r="D148" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="149">
@@ -3093,7 +3093,7 @@
         <v>2.0</v>
       </c>
       <c r="D149" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="150">
@@ -3107,7 +3107,7 @@
         <v>8.0</v>
       </c>
       <c r="D150" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="151">
@@ -3118,7 +3118,7 @@
         <v>2.0</v>
       </c>
       <c r="D151" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="152">
@@ -3132,7 +3132,7 @@
         <v>8.0</v>
       </c>
       <c r="D152" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="153">
@@ -3143,7 +3143,7 @@
         <v>2.0</v>
       </c>
       <c r="D153" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="154">
@@ -3157,7 +3157,7 @@
         <v>8.0</v>
       </c>
       <c r="D154" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="155">
@@ -3168,7 +3168,7 @@
         <v>2.0</v>
       </c>
       <c r="D155" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="156">
@@ -3182,7 +3182,7 @@
         <v>8.0</v>
       </c>
       <c r="D156" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="157">
@@ -3193,7 +3193,7 @@
         <v>2.0</v>
       </c>
       <c r="D157" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="158">
@@ -3207,7 +3207,7 @@
         <v>8.0</v>
       </c>
       <c r="D158" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="159">
@@ -3218,7 +3218,7 @@
         <v>2.0</v>
       </c>
       <c r="D159" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="160">
@@ -3232,7 +3232,7 @@
         <v>8.0</v>
       </c>
       <c r="D160" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="161">
@@ -3243,7 +3243,7 @@
         <v>2.0</v>
       </c>
       <c r="D161" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="162">
@@ -3257,7 +3257,7 @@
         <v>8.0</v>
       </c>
       <c r="D162" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="163">
@@ -3268,7 +3268,7 @@
         <v>2.0</v>
       </c>
       <c r="D163" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="164">
@@ -3282,7 +3282,7 @@
         <v>8.0</v>
       </c>
       <c r="D164" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="165">
@@ -3293,7 +3293,7 @@
         <v>2.0</v>
       </c>
       <c r="D165" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="166">
@@ -3307,7 +3307,7 @@
         <v>8.0</v>
       </c>
       <c r="D166" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="167">
@@ -3318,7 +3318,7 @@
         <v>2.0</v>
       </c>
       <c r="D167" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="168">
@@ -3332,7 +3332,7 @@
         <v>8.0</v>
       </c>
       <c r="D168" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="169">
@@ -3343,7 +3343,7 @@
         <v>2.0</v>
       </c>
       <c r="D169" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="170">
@@ -3357,7 +3357,7 @@
         <v>8.0</v>
       </c>
       <c r="D170" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="171">
@@ -3368,7 +3368,7 @@
         <v>2.0</v>
       </c>
       <c r="D171" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="172">
@@ -3382,7 +3382,7 @@
         <v>8.0</v>
       </c>
       <c r="D172" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="173">
@@ -3393,7 +3393,7 @@
         <v>2.0</v>
       </c>
       <c r="D173" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="174">
@@ -3407,7 +3407,7 @@
         <v>8.0</v>
       </c>
       <c r="D174" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="175">
@@ -3418,7 +3418,7 @@
         <v>2.0</v>
       </c>
       <c r="D175" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="176">
@@ -3432,7 +3432,7 @@
         <v>8.0</v>
       </c>
       <c r="D176" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="177">
@@ -3443,7 +3443,7 @@
         <v>2.0</v>
       </c>
       <c r="D177" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="178">
@@ -3457,7 +3457,7 @@
         <v>8.0</v>
       </c>
       <c r="D178" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="179">
@@ -3468,7 +3468,7 @@
         <v>2.0</v>
       </c>
       <c r="D179" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="180">
@@ -3482,7 +3482,7 @@
         <v>8.0</v>
       </c>
       <c r="D180" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="181">
@@ -3493,7 +3493,7 @@
         <v>2.0</v>
       </c>
       <c r="D181" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="182">
@@ -3507,7 +3507,7 @@
         <v>8.0</v>
       </c>
       <c r="D182" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="183">
@@ -3518,7 +3518,7 @@
         <v>2.0</v>
       </c>
       <c r="D183" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="184">
@@ -3532,7 +3532,7 @@
         <v>8.0</v>
       </c>
       <c r="D184" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="185">
@@ -3543,7 +3543,7 @@
         <v>2.0</v>
       </c>
       <c r="D185" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="186">
@@ -3557,7 +3557,7 @@
         <v>8.0</v>
       </c>
       <c r="D186" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="187">
@@ -3568,7 +3568,7 @@
         <v>2.0</v>
       </c>
       <c r="D187" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="188">
@@ -3582,7 +3582,7 @@
         <v>8.0</v>
       </c>
       <c r="D188" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="189">
@@ -3593,7 +3593,7 @@
         <v>2.0</v>
       </c>
       <c r="D189" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="190">
@@ -3607,7 +3607,7 @@
         <v>8.0</v>
       </c>
       <c r="D190" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="191">
@@ -3618,7 +3618,7 @@
         <v>2.0</v>
       </c>
       <c r="D191" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="192">
@@ -3632,7 +3632,7 @@
         <v>8.0</v>
       </c>
       <c r="D192" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="193">
@@ -3643,7 +3643,7 @@
         <v>2.0</v>
       </c>
       <c r="D193" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
@@ -3657,7 +3657,7 @@
         <v>8.0</v>
       </c>
       <c r="D194" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="195">
@@ -3668,7 +3668,7 @@
         <v>2.0</v>
       </c>
       <c r="D195" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="196">
@@ -3682,7 +3682,7 @@
         <v>8.0</v>
       </c>
       <c r="D196" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="197">
@@ -3693,7 +3693,7 @@
         <v>2.0</v>
       </c>
       <c r="D197" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="198">
@@ -3707,7 +3707,7 @@
         <v>8.0</v>
       </c>
       <c r="D198" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="199">
@@ -3718,7 +3718,7 @@
         <v>2.0</v>
       </c>
       <c r="D199" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="200">
@@ -3732,7 +3732,7 @@
         <v>8.0</v>
       </c>
       <c r="D200" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="201">
@@ -3743,7 +3743,7 @@
         <v>2.0</v>
       </c>
       <c r="D201" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="202">
@@ -3757,7 +3757,7 @@
         <v>8.0</v>
       </c>
       <c r="D202" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="203">
@@ -3768,7 +3768,7 @@
         <v>2.0</v>
       </c>
       <c r="D203" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="204">
@@ -3782,7 +3782,7 @@
         <v>8.0</v>
       </c>
       <c r="D204" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="205">
@@ -3793,7 +3793,7 @@
         <v>2.0</v>
       </c>
       <c r="D205" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="206">
@@ -3807,7 +3807,7 @@
         <v>8.0</v>
       </c>
       <c r="D206" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="207">
@@ -3818,7 +3818,7 @@
         <v>2.0</v>
       </c>
       <c r="D207" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="208">
@@ -3832,7 +3832,7 @@
         <v>8.0</v>
       </c>
       <c r="D208" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="209">
@@ -3843,7 +3843,7 @@
         <v>2.0</v>
       </c>
       <c r="D209" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="210">
@@ -3857,7 +3857,7 @@
         <v>8.0</v>
       </c>
       <c r="D210" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="211">
@@ -3868,7 +3868,7 @@
         <v>2.0</v>
       </c>
       <c r="D211" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="212">
@@ -3882,7 +3882,7 @@
         <v>8.0</v>
       </c>
       <c r="D212" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="213">
@@ -3893,7 +3893,7 @@
         <v>2.0</v>
       </c>
       <c r="D213" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="214">
@@ -3907,7 +3907,7 @@
         <v>8.0</v>
       </c>
       <c r="D214" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="215">
@@ -3918,7 +3918,7 @@
         <v>2.0</v>
       </c>
       <c r="D215" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="216">
@@ -3932,7 +3932,7 @@
         <v>8.0</v>
       </c>
       <c r="D216" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="217">
@@ -3943,7 +3943,7 @@
         <v>2.0</v>
       </c>
       <c r="D217" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="218">
@@ -3957,7 +3957,7 @@
         <v>8.0</v>
       </c>
       <c r="D218" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="219">
@@ -3968,7 +3968,7 @@
         <v>2.0</v>
       </c>
       <c r="D219" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="220">
@@ -3982,7 +3982,7 @@
         <v>8.0</v>
       </c>
       <c r="D220" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="221">
@@ -3993,7 +3993,7 @@
         <v>2.0</v>
       </c>
       <c r="D221" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="222">
@@ -4007,7 +4007,7 @@
         <v>8.0</v>
       </c>
       <c r="D222" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="223">
@@ -4018,7 +4018,7 @@
         <v>2.0</v>
       </c>
       <c r="D223" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="224">
@@ -4032,7 +4032,7 @@
         <v>8.0</v>
       </c>
       <c r="D224" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="225">
@@ -4043,7 +4043,7 @@
         <v>2.0</v>
       </c>
       <c r="D225" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="226">
@@ -4057,7 +4057,7 @@
         <v>8.0</v>
       </c>
       <c r="D226" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="227">
@@ -4068,7 +4068,7 @@
         <v>2.0</v>
       </c>
       <c r="D227" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="228">
@@ -4082,7 +4082,7 @@
         <v>8.0</v>
       </c>
       <c r="D228" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="229">
@@ -4093,7 +4093,7 @@
         <v>2.0</v>
       </c>
       <c r="D229" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="230">
@@ -4107,7 +4107,7 @@
         <v>8.0</v>
       </c>
       <c r="D230" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="231">
@@ -4118,7 +4118,7 @@
         <v>2.0</v>
       </c>
       <c r="D231" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="232">
@@ -4132,7 +4132,7 @@
         <v>8.0</v>
       </c>
       <c r="D232" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="233">
@@ -4143,7 +4143,7 @@
         <v>2.0</v>
       </c>
       <c r="D233" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="234">
@@ -4157,7 +4157,7 @@
         <v>8.0</v>
       </c>
       <c r="D234" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="235">
@@ -4171,7 +4171,7 @@
         <v>8.0</v>
       </c>
       <c r="D235" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="236">
@@ -4185,7 +4185,7 @@
         <v>8.0</v>
       </c>
       <c r="D236" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="237">
@@ -4199,7 +4199,7 @@
         <v>8.0</v>
       </c>
       <c r="D237" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="238">
@@ -4213,7 +4213,7 @@
         <v>8.0</v>
       </c>
       <c r="D238" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="239">
@@ -4227,7 +4227,7 @@
         <v>8.0</v>
       </c>
       <c r="D239" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="240">
@@ -4241,7 +4241,7 @@
         <v>8.0</v>
       </c>
       <c r="D240" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="241">
@@ -4255,7 +4255,7 @@
         <v>8.0</v>
       </c>
       <c r="D241" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="242">
@@ -4269,7 +4269,7 @@
         <v>8.0</v>
       </c>
       <c r="D242" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="243">
@@ -4283,7 +4283,7 @@
         <v>7.0</v>
       </c>
       <c r="D243" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="244">
@@ -4294,7 +4294,7 @@
         <v>3.0</v>
       </c>
       <c r="D244" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="245">
@@ -4308,7 +4308,7 @@
         <v>7.0</v>
       </c>
       <c r="D245" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="246">
@@ -4319,7 +4319,7 @@
         <v>3.0</v>
       </c>
       <c r="D246" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="247">
@@ -4333,7 +4333,7 @@
         <v>7.0</v>
       </c>
       <c r="D247" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="248">
@@ -4344,7 +4344,7 @@
         <v>3.0</v>
       </c>
       <c r="D248" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="249">
@@ -4358,7 +4358,7 @@
         <v>7.0</v>
       </c>
       <c r="D249" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="250">
@@ -4369,7 +4369,7 @@
         <v>3.0</v>
       </c>
       <c r="D250" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="251">
@@ -4383,7 +4383,7 @@
         <v>7.0</v>
       </c>
       <c r="D251" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="252">
@@ -4394,7 +4394,7 @@
         <v>3.0</v>
       </c>
       <c r="D252" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="253">
@@ -4408,7 +4408,7 @@
         <v>7.0</v>
       </c>
       <c r="D253" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="254">
@@ -4419,7 +4419,7 @@
         <v>3.0</v>
       </c>
       <c r="D254" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="255">
@@ -4433,7 +4433,7 @@
         <v>7.0</v>
       </c>
       <c r="D255" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="256">
@@ -4444,7 +4444,7 @@
         <v>3.0</v>
       </c>
       <c r="D256" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="257">
@@ -4458,7 +4458,7 @@
         <v>7.0</v>
       </c>
       <c r="D257" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="258">
@@ -4469,7 +4469,7 @@
         <v>3.0</v>
       </c>
       <c r="D258" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="259">
@@ -4483,7 +4483,7 @@
         <v>7.0</v>
       </c>
       <c r="D259" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="260">
@@ -4494,7 +4494,7 @@
         <v>3.0</v>
       </c>
       <c r="D260" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="261">
@@ -4508,7 +4508,7 @@
         <v>7.0</v>
       </c>
       <c r="D261" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="262">
@@ -4519,7 +4519,7 @@
         <v>3.0</v>
       </c>
       <c r="D262" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="263">
@@ -4533,7 +4533,7 @@
         <v>7.0</v>
       </c>
       <c r="D263" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="264">
@@ -4544,7 +4544,7 @@
         <v>3.0</v>
       </c>
       <c r="D264" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="265">
@@ -4558,7 +4558,7 @@
         <v>7.0</v>
       </c>
       <c r="D265" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="266">
@@ -4569,7 +4569,7 @@
         <v>3.0</v>
       </c>
       <c r="D266" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="267">
@@ -4583,7 +4583,7 @@
         <v>7.0</v>
       </c>
       <c r="D267" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="268">
@@ -4594,7 +4594,7 @@
         <v>3.0</v>
       </c>
       <c r="D268" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="269">
@@ -4608,7 +4608,7 @@
         <v>7.0</v>
       </c>
       <c r="D269" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="270">
@@ -4619,7 +4619,7 @@
         <v>3.0</v>
       </c>
       <c r="D270" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="271">
@@ -4633,7 +4633,7 @@
         <v>7.0</v>
       </c>
       <c r="D271" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="272">
@@ -4644,7 +4644,7 @@
         <v>3.0</v>
       </c>
       <c r="D272" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="273">
@@ -4658,7 +4658,7 @@
         <v>7.0</v>
       </c>
       <c r="D273" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="274">
@@ -4669,7 +4669,7 @@
         <v>3.0</v>
       </c>
       <c r="D274" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="275">
@@ -4683,7 +4683,7 @@
         <v>7.0</v>
       </c>
       <c r="D275" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="276">
@@ -4694,7 +4694,7 @@
         <v>3.0</v>
       </c>
       <c r="D276" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="277">
@@ -4708,7 +4708,7 @@
         <v>7.0</v>
       </c>
       <c r="D277" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="278">
@@ -4719,7 +4719,7 @@
         <v>3.0</v>
       </c>
       <c r="D278" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="279">
@@ -4733,7 +4733,7 @@
         <v>7.0</v>
       </c>
       <c r="D279" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="280">
@@ -4744,7 +4744,7 @@
         <v>3.0</v>
       </c>
       <c r="D280" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="281">
@@ -4758,7 +4758,7 @@
         <v>7.0</v>
       </c>
       <c r="D281" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="282">
@@ -4769,7 +4769,7 @@
         <v>3.0</v>
       </c>
       <c r="D282" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="283">
@@ -4783,7 +4783,7 @@
         <v>7.0</v>
       </c>
       <c r="D283" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="284">
@@ -4794,7 +4794,7 @@
         <v>3.0</v>
       </c>
       <c r="D284" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="285">
@@ -4808,7 +4808,7 @@
         <v>7.0</v>
       </c>
       <c r="D285" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="286">
@@ -4819,7 +4819,7 @@
         <v>3.0</v>
       </c>
       <c r="D286" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="287">
@@ -4833,7 +4833,7 @@
         <v>7.0</v>
       </c>
       <c r="D287" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="288">
@@ -4844,7 +4844,7 @@
         <v>3.0</v>
       </c>
       <c r="D288" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="289">
@@ -4858,7 +4858,7 @@
         <v>7.0</v>
       </c>
       <c r="D289" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="290">
@@ -4869,7 +4869,7 @@
         <v>3.0</v>
       </c>
       <c r="D290" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="291">
@@ -4883,7 +4883,7 @@
         <v>7.0</v>
       </c>
       <c r="D291" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="292">
@@ -4894,7 +4894,7 @@
         <v>3.0</v>
       </c>
       <c r="D292" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="293">
@@ -4908,7 +4908,7 @@
         <v>7.0</v>
       </c>
       <c r="D293" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="294">
@@ -4919,7 +4919,7 @@
         <v>3.0</v>
       </c>
       <c r="D294" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="295">
@@ -4933,7 +4933,7 @@
         <v>7.0</v>
       </c>
       <c r="D295" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="296">
@@ -4944,7 +4944,7 @@
         <v>3.0</v>
       </c>
       <c r="D296" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="297">
@@ -4958,7 +4958,7 @@
         <v>7.0</v>
       </c>
       <c r="D297" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="298">
@@ -4969,7 +4969,7 @@
         <v>3.0</v>
       </c>
       <c r="D298" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="299">
@@ -4983,7 +4983,7 @@
         <v>7.0</v>
       </c>
       <c r="D299" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="300">
@@ -4994,7 +4994,7 @@
         <v>3.0</v>
       </c>
       <c r="D300" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="301">
@@ -5008,7 +5008,7 @@
         <v>7.0</v>
       </c>
       <c r="D301" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="302">
@@ -5019,7 +5019,7 @@
         <v>3.0</v>
       </c>
       <c r="D302" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="303">
@@ -5033,7 +5033,7 @@
         <v>7.0</v>
       </c>
       <c r="D303" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="304">
@@ -5044,7 +5044,7 @@
         <v>3.0</v>
       </c>
       <c r="D304" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="305">
@@ -5058,7 +5058,7 @@
         <v>6.0</v>
       </c>
       <c r="D305" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="306">
@@ -5069,7 +5069,7 @@
         <v>4.0</v>
       </c>
       <c r="D306" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="307">
@@ -5083,7 +5083,7 @@
         <v>6.0</v>
       </c>
       <c r="D307" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="308">
@@ -5094,7 +5094,7 @@
         <v>4.0</v>
       </c>
       <c r="D308" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="309">
@@ -5108,7 +5108,7 @@
         <v>6.0</v>
       </c>
       <c r="D309" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -5119,7 +5119,7 @@
         <v>4.0</v>
       </c>
       <c r="D310" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="311">
@@ -5133,7 +5133,7 @@
         <v>6.0</v>
       </c>
       <c r="D311" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="312">
@@ -5144,7 +5144,7 @@
         <v>4.0</v>
       </c>
       <c r="D312" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="313">
@@ -5158,7 +5158,7 @@
         <v>6.0</v>
       </c>
       <c r="D313" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="314">
@@ -5169,7 +5169,7 @@
         <v>4.0</v>
       </c>
       <c r="D314" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="315">
@@ -5183,7 +5183,7 @@
         <v>6.0</v>
       </c>
       <c r="D315" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="316">
@@ -5194,7 +5194,7 @@
         <v>4.0</v>
       </c>
       <c r="D316" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="317">
@@ -5208,7 +5208,7 @@
         <v>6.0</v>
       </c>
       <c r="D317" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="318">
@@ -5219,7 +5219,7 @@
         <v>4.0</v>
       </c>
       <c r="D318" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="319">
@@ -5233,7 +5233,7 @@
         <v>6.0</v>
       </c>
       <c r="D319" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="320">
@@ -5244,7 +5244,7 @@
         <v>4.0</v>
       </c>
       <c r="D320" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="321">
@@ -5258,7 +5258,7 @@
         <v>6.0</v>
       </c>
       <c r="D321" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="322">
@@ -5269,7 +5269,7 @@
         <v>4.0</v>
       </c>
       <c r="D322" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="323">
@@ -5283,7 +5283,7 @@
         <v>6.0</v>
       </c>
       <c r="D323" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="324">
@@ -5294,7 +5294,7 @@
         <v>4.0</v>
       </c>
       <c r="D324" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="325">
@@ -5308,7 +5308,7 @@
         <v>6.0</v>
       </c>
       <c r="D325" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="326">
@@ -5319,7 +5319,7 @@
         <v>4.0</v>
       </c>
       <c r="D326" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="327">
@@ -5333,7 +5333,7 @@
         <v>6.0</v>
       </c>
       <c r="D327" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="328">
@@ -5344,7 +5344,7 @@
         <v>4.0</v>
       </c>
       <c r="D328" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="329">
@@ -5358,7 +5358,7 @@
         <v>6.0</v>
       </c>
       <c r="D329" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="330">
@@ -5369,7 +5369,7 @@
         <v>4.0</v>
       </c>
       <c r="D330" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="331">
@@ -5383,7 +5383,7 @@
         <v>6.0</v>
       </c>
       <c r="D331" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="332">
@@ -5394,7 +5394,7 @@
         <v>4.0</v>
       </c>
       <c r="D332" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="333">
@@ -5408,7 +5408,7 @@
         <v>6.0</v>
       </c>
       <c r="D333" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="334">
@@ -5419,7 +5419,7 @@
         <v>4.0</v>
       </c>
       <c r="D334" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="335">
@@ -5433,7 +5433,7 @@
         <v>6.0</v>
       </c>
       <c r="D335" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="336">
@@ -5444,7 +5444,7 @@
         <v>4.0</v>
       </c>
       <c r="D336" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="337">
@@ -5458,7 +5458,7 @@
         <v>6.0</v>
       </c>
       <c r="D337" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="338">
@@ -5469,7 +5469,7 @@
         <v>4.0</v>
       </c>
       <c r="D338" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="339">
@@ -5483,7 +5483,7 @@
         <v>6.0</v>
       </c>
       <c r="D339" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="340">
@@ -5494,7 +5494,7 @@
         <v>4.0</v>
       </c>
       <c r="D340" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="341">
@@ -5508,7 +5508,7 @@
         <v>6.0</v>
       </c>
       <c r="D341" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="342">
@@ -5519,7 +5519,7 @@
         <v>4.0</v>
       </c>
       <c r="D342" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="343">
@@ -5533,7 +5533,7 @@
         <v>6.0</v>
       </c>
       <c r="D343" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="344">
@@ -5544,7 +5544,7 @@
         <v>4.0</v>
       </c>
       <c r="D344" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="345">
@@ -5558,7 +5558,7 @@
         <v>6.0</v>
       </c>
       <c r="D345" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="346">
@@ -5569,7 +5569,7 @@
         <v>4.0</v>
       </c>
       <c r="D346" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="347">
@@ -5583,7 +5583,7 @@
         <v>6.0</v>
       </c>
       <c r="D347" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="348">
@@ -5594,7 +5594,7 @@
         <v>4.0</v>
       </c>
       <c r="D348" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="349">
@@ -5608,7 +5608,7 @@
         <v>6.0</v>
       </c>
       <c r="D349" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="350">
@@ -5619,7 +5619,7 @@
         <v>4.0</v>
       </c>
       <c r="D350" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="351">
@@ -5633,7 +5633,7 @@
         <v>6.0</v>
       </c>
       <c r="D351" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="352">
@@ -5644,7 +5644,7 @@
         <v>4.0</v>
       </c>
       <c r="D352" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="353">
@@ -5658,7 +5658,7 @@
         <v>6.0</v>
       </c>
       <c r="D353" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="354">
@@ -5669,7 +5669,7 @@
         <v>4.0</v>
       </c>
       <c r="D354" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="355">
@@ -5683,7 +5683,7 @@
         <v>6.0</v>
       </c>
       <c r="D355" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="356">
@@ -5694,7 +5694,7 @@
         <v>4.0</v>
       </c>
       <c r="D356" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="357">
@@ -5708,7 +5708,7 @@
         <v>6.0</v>
       </c>
       <c r="D357" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="358">
@@ -5719,7 +5719,7 @@
         <v>4.0</v>
       </c>
       <c r="D358" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="359">
@@ -5733,7 +5733,7 @@
         <v>6.0</v>
       </c>
       <c r="D359" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="360">
@@ -5744,7 +5744,7 @@
         <v>4.0</v>
       </c>
       <c r="D360" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="361">
@@ -5758,7 +5758,7 @@
         <v>6.0</v>
       </c>
       <c r="D361" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="362">
@@ -5769,7 +5769,7 @@
         <v>4.0</v>
       </c>
       <c r="D362" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="363">
@@ -5783,7 +5783,7 @@
         <v>6.0</v>
       </c>
       <c r="D363" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="364">
@@ -5794,7 +5794,7 @@
         <v>4.0</v>
       </c>
       <c r="D364" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="365">
@@ -5808,7 +5808,7 @@
         <v>6.0</v>
       </c>
       <c r="D365" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="366">
@@ -5819,7 +5819,7 @@
         <v>4.0</v>
       </c>
       <c r="D366" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="367">
@@ -5833,7 +5833,7 @@
         <v>6.0</v>
       </c>
       <c r="D367" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="368">
@@ -5844,7 +5844,7 @@
         <v>4.0</v>
       </c>
       <c r="D368" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="369">
@@ -5858,7 +5858,7 @@
         <v>6.0</v>
       </c>
       <c r="D369" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="370">
@@ -5869,7 +5869,7 @@
         <v>4.0</v>
       </c>
       <c r="D370" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="371">
@@ -5883,7 +5883,7 @@
         <v>6.0</v>
       </c>
       <c r="D371" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="372">
@@ -5894,7 +5894,7 @@
         <v>4.0</v>
       </c>
       <c r="D372" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="373">
@@ -5908,7 +5908,7 @@
         <v>6.0</v>
       </c>
       <c r="D373" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="374">
@@ -5919,7 +5919,7 @@
         <v>4.0</v>
       </c>
       <c r="D374" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="375">
@@ -5933,7 +5933,7 @@
         <v>6.0</v>
       </c>
       <c r="D375" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="376">
@@ -5944,7 +5944,7 @@
         <v>4.0</v>
       </c>
       <c r="D376" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="377">
@@ -5958,7 +5958,7 @@
         <v>6.0</v>
       </c>
       <c r="D377" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="378">
@@ -5969,7 +5969,7 @@
         <v>4.0</v>
       </c>
       <c r="D378" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="379">
@@ -5983,7 +5983,7 @@
         <v>6.0</v>
       </c>
       <c r="D379" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="380">
@@ -5994,7 +5994,7 @@
         <v>4.0</v>
       </c>
       <c r="D380" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="381">
@@ -6008,7 +6008,7 @@
         <v>6.0</v>
       </c>
       <c r="D381" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="382">
@@ -6019,7 +6019,7 @@
         <v>4.0</v>
       </c>
       <c r="D382" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="383">
@@ -6033,7 +6033,7 @@
         <v>6.0</v>
       </c>
       <c r="D383" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="384">
@@ -6044,7 +6044,7 @@
         <v>4.0</v>
       </c>
       <c r="D384" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="385">
@@ -6058,7 +6058,7 @@
         <v>6.0</v>
       </c>
       <c r="D385" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="386">
@@ -6069,7 +6069,7 @@
         <v>4.0</v>
       </c>
       <c r="D386" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="387">
@@ -6083,7 +6083,7 @@
         <v>6.0</v>
       </c>
       <c r="D387" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="388">
@@ -6094,7 +6094,7 @@
         <v>4.0</v>
       </c>
       <c r="D388" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="389">
@@ -6108,7 +6108,7 @@
         <v>5.0</v>
       </c>
       <c r="D389" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="390">
@@ -6119,7 +6119,7 @@
         <v>5.0</v>
       </c>
       <c r="D390" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="391">
@@ -6133,7 +6133,7 @@
         <v>5.0</v>
       </c>
       <c r="D391" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="392">
@@ -6144,7 +6144,7 @@
         <v>5.0</v>
       </c>
       <c r="D392" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="393">
@@ -6158,7 +6158,7 @@
         <v>5.0</v>
       </c>
       <c r="D393" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="394">
@@ -6169,7 +6169,7 @@
         <v>5.0</v>
       </c>
       <c r="D394" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="395">
@@ -6183,7 +6183,7 @@
         <v>5.0</v>
       </c>
       <c r="D395" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="396">
@@ -6194,7 +6194,7 @@
         <v>5.0</v>
       </c>
       <c r="D396" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="397">
@@ -6208,7 +6208,7 @@
         <v>5.0</v>
       </c>
       <c r="D397" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="398">
@@ -6219,7 +6219,7 @@
         <v>5.0</v>
       </c>
       <c r="D398" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="399">
@@ -6233,7 +6233,7 @@
         <v>5.0</v>
       </c>
       <c r="D399" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="400">
@@ -6244,7 +6244,7 @@
         <v>5.0</v>
       </c>
       <c r="D400" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="401">
@@ -6258,7 +6258,7 @@
         <v>5.0</v>
       </c>
       <c r="D401" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="402">
@@ -6269,7 +6269,7 @@
         <v>5.0</v>
       </c>
       <c r="D402" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="403">
@@ -6283,7 +6283,7 @@
         <v>5.0</v>
       </c>
       <c r="D403" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="404">
@@ -6294,7 +6294,7 @@
         <v>5.0</v>
       </c>
       <c r="D404" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="405">
@@ -6308,7 +6308,7 @@
         <v>5.0</v>
       </c>
       <c r="D405" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="406">
@@ -6319,7 +6319,7 @@
         <v>5.0</v>
       </c>
       <c r="D406" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="407">
@@ -6333,7 +6333,7 @@
         <v>5.0</v>
       </c>
       <c r="D407" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="408">
@@ -6344,7 +6344,7 @@
         <v>5.0</v>
       </c>
       <c r="D408" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="409">
@@ -6358,7 +6358,7 @@
         <v>5.0</v>
       </c>
       <c r="D409" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="410">
@@ -6369,7 +6369,7 @@
         <v>5.0</v>
       </c>
       <c r="D410" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="411">
@@ -6383,7 +6383,7 @@
         <v>5.0</v>
       </c>
       <c r="D411" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="412">
@@ -6394,7 +6394,7 @@
         <v>5.0</v>
       </c>
       <c r="D412" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="413">
@@ -6408,7 +6408,7 @@
         <v>5.0</v>
       </c>
       <c r="D413" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="414">
@@ -6419,7 +6419,7 @@
         <v>5.0</v>
       </c>
       <c r="D414" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="415">
@@ -6433,7 +6433,7 @@
         <v>5.0</v>
       </c>
       <c r="D415" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="416">
@@ -6444,7 +6444,7 @@
         <v>5.0</v>
       </c>
       <c r="D416" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="417">
@@ -6458,7 +6458,7 @@
         <v>5.0</v>
       </c>
       <c r="D417" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="418">
@@ -6469,7 +6469,7 @@
         <v>5.0</v>
       </c>
       <c r="D418" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="419">
@@ -6483,7 +6483,7 @@
         <v>5.0</v>
       </c>
       <c r="D419" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="420">
@@ -6494,7 +6494,7 @@
         <v>5.0</v>
       </c>
       <c r="D420" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="421">
@@ -6508,7 +6508,7 @@
         <v>5.0</v>
       </c>
       <c r="D421" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="422">
@@ -6519,7 +6519,7 @@
         <v>5.0</v>
       </c>
       <c r="D422" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="423">
@@ -6533,7 +6533,7 @@
         <v>5.0</v>
       </c>
       <c r="D423" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="424">
@@ -6544,7 +6544,7 @@
         <v>5.0</v>
       </c>
       <c r="D424" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="425">
@@ -6558,7 +6558,7 @@
         <v>5.0</v>
       </c>
       <c r="D425" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="426">
@@ -6569,7 +6569,7 @@
         <v>5.0</v>
       </c>
       <c r="D426" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="427">
@@ -6583,7 +6583,7 @@
         <v>5.0</v>
       </c>
       <c r="D427" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="428">
@@ -6594,7 +6594,7 @@
         <v>5.0</v>
       </c>
       <c r="D428" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="429">
@@ -6608,7 +6608,7 @@
         <v>5.0</v>
       </c>
       <c r="D429" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="430">
@@ -6619,7 +6619,7 @@
         <v>5.0</v>
       </c>
       <c r="D430" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="431">
@@ -6633,7 +6633,7 @@
         <v>5.0</v>
       </c>
       <c r="D431" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="432">
@@ -6644,7 +6644,7 @@
         <v>5.0</v>
       </c>
       <c r="D432" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="433">
@@ -6658,7 +6658,7 @@
         <v>5.0</v>
       </c>
       <c r="D433" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="434">
@@ -6669,7 +6669,7 @@
         <v>5.0</v>
       </c>
       <c r="D434" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="435">
@@ -6683,7 +6683,7 @@
         <v>5.0</v>
       </c>
       <c r="D435" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="436">
@@ -6694,7 +6694,7 @@
         <v>5.0</v>
       </c>
       <c r="D436" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="437">
@@ -6708,7 +6708,7 @@
         <v>5.0</v>
       </c>
       <c r="D437" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="438">
@@ -6719,7 +6719,7 @@
         <v>5.0</v>
       </c>
       <c r="D438" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="439">
@@ -6733,7 +6733,7 @@
         <v>5.0</v>
       </c>
       <c r="D439" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="440">
@@ -6744,7 +6744,7 @@
         <v>5.0</v>
       </c>
       <c r="D440" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="441">
@@ -6758,7 +6758,7 @@
         <v>5.0</v>
       </c>
       <c r="D441" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="442">
@@ -6769,7 +6769,7 @@
         <v>5.0</v>
       </c>
       <c r="D442" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="443">
@@ -6783,7 +6783,7 @@
         <v>5.0</v>
       </c>
       <c r="D443" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="444">
@@ -6794,7 +6794,7 @@
         <v>5.0</v>
       </c>
       <c r="D444" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="445">
@@ -6808,7 +6808,7 @@
         <v>5.0</v>
       </c>
       <c r="D445" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="446">
@@ -6819,7 +6819,7 @@
         <v>5.0</v>
       </c>
       <c r="D446" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="447">
@@ -6833,7 +6833,7 @@
         <v>5.0</v>
       </c>
       <c r="D447" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="448">
@@ -6844,7 +6844,7 @@
         <v>5.0</v>
       </c>
       <c r="D448" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="449">
@@ -6858,7 +6858,7 @@
         <v>5.0</v>
       </c>
       <c r="D449" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="450">
@@ -6869,7 +6869,7 @@
         <v>5.0</v>
       </c>
       <c r="D450" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="451">
@@ -6883,7 +6883,7 @@
         <v>5.0</v>
       </c>
       <c r="D451" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="452">
@@ -6894,7 +6894,7 @@
         <v>5.0</v>
       </c>
       <c r="D452" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="453">
@@ -6908,7 +6908,7 @@
         <v>5.0</v>
       </c>
       <c r="D453" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="454">
@@ -6919,7 +6919,7 @@
         <v>5.0</v>
       </c>
       <c r="D454" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="455">
@@ -6933,7 +6933,7 @@
         <v>5.0</v>
       </c>
       <c r="D455" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="456">
@@ -6944,7 +6944,7 @@
         <v>5.0</v>
       </c>
       <c r="D456" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="457">
@@ -6958,7 +6958,7 @@
         <v>5.0</v>
       </c>
       <c r="D457" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="458">
@@ -6969,7 +6969,7 @@
         <v>5.0</v>
       </c>
       <c r="D458" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="459">
@@ -6983,7 +6983,7 @@
         <v>5.0</v>
       </c>
       <c r="D459" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="460">
@@ -6994,7 +6994,7 @@
         <v>5.0</v>
       </c>
       <c r="D460" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="461">
@@ -7008,7 +7008,7 @@
         <v>5.0</v>
       </c>
       <c r="D461" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="462">
@@ -7019,7 +7019,7 @@
         <v>5.0</v>
       </c>
       <c r="D462" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="463">
@@ -7033,7 +7033,7 @@
         <v>5.0</v>
       </c>
       <c r="D463" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="464">
@@ -7044,7 +7044,7 @@
         <v>5.0</v>
       </c>
       <c r="D464" t="n" s="0">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="465">
@@ -7058,7 +7058,7 @@
         <v>5.0</v>
       </c>
       <c r="D465" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="466">
@@ -7069,7 +7069,7 @@
         <v>4.0</v>
       </c>
       <c r="D466" t="n" s="0">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="467">
@@ -7083,7 +7083,7 @@
         <v>4.0</v>
       </c>
       <c r="D467" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="468">
@@ -7094,7 +7094,7 @@
         <v>4.0</v>
       </c>
       <c r="D468" t="n" s="0">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="469">
@@ -7108,7 +7108,7 @@
         <v>4.0</v>
       </c>
       <c r="D469" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="470">
@@ -7119,7 +7119,7 @@
         <v>4.0</v>
       </c>
       <c r="D470" t="n" s="0">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="471">
@@ -7133,7 +7133,7 @@
         <v>4.0</v>
       </c>
       <c r="D471" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="472">
@@ -7144,7 +7144,7 @@
         <v>4.0</v>
       </c>
       <c r="D472" t="n" s="0">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="473">
@@ -7158,7 +7158,7 @@
         <v>4.0</v>
       </c>
       <c r="D473" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="474">
@@ -7169,7 +7169,7 @@
         <v>4.0</v>
       </c>
       <c r="D474" t="n" s="0">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="475">
@@ -7183,7 +7183,7 @@
         <v>4.0</v>
       </c>
       <c r="D475" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="476">
@@ -7194,7 +7194,7 @@
         <v>4.0</v>
       </c>
       <c r="D476" t="n" s="0">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="477">
@@ -7208,7 +7208,7 @@
         <v>4.0</v>
       </c>
       <c r="D477" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="478">
@@ -7219,7 +7219,7 @@
         <v>4.0</v>
       </c>
       <c r="D478" t="n" s="0">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="479">
@@ -7233,7 +7233,7 @@
         <v>4.0</v>
       </c>
       <c r="D479" t="n">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="480">
@@ -7244,7 +7244,7 @@
         <v>4.0</v>
       </c>
       <c r="D480" t="n" s="0">
-        <v>7.0</v>
+        <v>2.0</v>
       </c>
     </row>
   </sheetData>
